--- a/account/test case/テストケース作成.xlsx
+++ b/account/test case/テストケース作成.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="シート2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="シート3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>単体テスト</t>
   </si>
@@ -309,6 +310,47 @@
   <si>
     <t>DB上にて新規登録されたレコードは
 デフォルト値として「0 (有効状態)」表示になる</t>
+  </si>
+  <si>
+    <t>総合テスト</t>
+  </si>
+  <si>
+    <t>作成者： 山本風樹</t>
+  </si>
+  <si>
+    <t>アカウント登録をする</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント登録」選択→
+登録画面に遷移→必須項目入力→「確認する」クリック
+→確認画面遷移「登録する」クリック→
+完了画面に遷移→「TOPページに戻る」クリック</t>
+  </si>
+  <si>
+    <t>TOPページから登録完了画面まで遷移する
+入力データがDBへ正常に登録される
+エラーメッセージは表示されず「登録完了しました」の表示
+TOPページに戻れる</t>
+  </si>
+  <si>
+    <t>必須項目の未入力時チェック</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント登録」選択→登録画面に遷移→
+必須項目に入力せず「確認する」クリック</t>
+  </si>
+  <si>
+    <t>エラーメッセージが各必須項目の下に赤字で表示される
+データはDBに登録されない</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント登録」選択→登録画面に遷移→
+必須項目入力→「確認する」クリック→
+確認画面に遷移「登録する」クリック</t>
+  </si>
+  <si>
+    <t>エラーメッセージが赤字で表示される
+データはDBに登録されない</t>
   </si>
 </sst>
 </file>
@@ -318,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -357,11 +399,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="22.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -481,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -537,52 +596,49 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -600,33 +656,94 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -640,6 +757,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -963,7 +1084,9 @@
       <c r="A8" s="15">
         <v>2.0</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>45215.0</v>
+      </c>
       <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
@@ -973,7 +1096,9 @@
       <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="20"/>
     </row>
@@ -981,7 +1106,9 @@
       <c r="A9" s="15">
         <v>3.0</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16">
+        <v>45215.0</v>
+      </c>
       <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1118,9 @@
       <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="20"/>
     </row>
@@ -999,7 +1128,9 @@
       <c r="A10" s="15">
         <v>4.0</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C10" s="17" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1140,9 @@
       <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="20"/>
     </row>
@@ -1017,17 +1150,21 @@
       <c r="A11" s="15">
         <v>5.0</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="20"/>
     </row>
@@ -1035,17 +1172,21 @@
       <c r="A12" s="15">
         <v>6.0</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="20"/>
     </row>
@@ -1053,7 +1194,9 @@
       <c r="A13" s="15">
         <v>7.0</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
@@ -1063,15 +1206,19 @@
       <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>8.0</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
@@ -1081,13 +1228,15 @@
       <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="14"/>
@@ -1098,10 +1247,12 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>9.0</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1262,9 @@
       <c r="E16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="20"/>
     </row>
@@ -1119,37 +1272,45 @@
       <c r="A17" s="15">
         <v>10.0</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="20"/>
     </row>
     <row r="18">
       <c r="A18" s="15">
         <v>11.0</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="37" t="s">
+      <c r="F18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="36" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1157,19 +1318,23 @@
       <c r="A19" s="15">
         <v>12.0</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="37" t="s">
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="36" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1189,7 +1354,9 @@
       <c r="A21" s="15">
         <v>13.0</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
@@ -1199,7 +1366,9 @@
       <c r="E21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="20"/>
     </row>
@@ -1207,17 +1376,21 @@
       <c r="A22" s="15">
         <v>14.0</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="20"/>
     </row>
@@ -1225,7 +1398,9 @@
       <c r="A23" s="15">
         <v>15.0</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
@@ -1235,13 +1410,15 @@
       <c r="E23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="20"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="14"/>
@@ -1255,7 +1432,9 @@
       <c r="A25" s="15">
         <v>16.0</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C25" s="17" t="s">
         <v>65</v>
       </c>
@@ -1265,7 +1444,9 @@
       <c r="E25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="20"/>
     </row>
@@ -1273,7 +1454,9 @@
       <c r="A26" s="15">
         <v>17.0</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="21">
+        <v>45215.0</v>
+      </c>
       <c r="C26" s="17" t="s">
         <v>68</v>
       </c>
@@ -1283,7 +1466,9 @@
       <c r="E26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="20"/>
     </row>
@@ -1291,8 +1476,10 @@
       <c r="A27" s="15">
         <v>18.0</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -1301,9 +1488,11 @@
       <c r="E27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1311,8 +1500,10 @@
       <c r="A28" s="15">
         <v>19.0</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="21">
+        <v>45215.0</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -1321,17 +1512,19 @@
       <c r="E28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="11"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1447,7 +1640,9 @@
       <c r="A5" s="15">
         <v>1.0</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="41">
+        <v>45215.0</v>
+      </c>
       <c r="C5" s="42" t="s">
         <v>80</v>
       </c>
@@ -1457,9 +1652,11 @@
       <c r="E5" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="44" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1467,19 +1664,23 @@
       <c r="A6" s="15">
         <v>2.0</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="41">
+        <v>45215.0</v>
+      </c>
       <c r="C6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="46" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1487,25 +1688,31 @@
       <c r="A7" s="15">
         <v>3.0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="41">
+        <v>45215.0</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" ht="30.75" customHeight="1">
       <c r="A8" s="15">
         <v>4.0</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="41">
+        <v>45215.0</v>
+      </c>
       <c r="C8" s="42" t="s">
         <v>91</v>
       </c>
@@ -1515,7 +1722,9 @@
       <c r="E8" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="20"/>
     </row>
@@ -1523,7 +1732,9 @@
       <c r="A9" s="15">
         <v>5.0</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="41">
+        <v>45215.0</v>
+      </c>
       <c r="C9" s="42" t="s">
         <v>65</v>
       </c>
@@ -1533,7 +1744,9 @@
       <c r="E9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="20"/>
     </row>
@@ -1541,7 +1754,9 @@
       <c r="A10" s="15">
         <v>6.0</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="41">
+        <v>45215.0</v>
+      </c>
       <c r="C10" s="42" t="s">
         <v>68</v>
       </c>
@@ -1551,7 +1766,9 @@
       <c r="E10" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="20"/>
     </row>
@@ -1559,8 +1776,10 @@
       <c r="A11" s="15">
         <v>7.0</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="41">
+        <v>45215.0</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -1569,7 +1788,9 @@
       <c r="E11" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="43" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="20"/>
     </row>
@@ -1577,11 +1798,11 @@
       <c r="A12" s="15">
         <v>8.0</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="11"/>
       <c r="H12" s="20"/>
     </row>
@@ -1589,11 +1810,11 @@
       <c r="A13" s="15">
         <v>9.0</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="11"/>
       <c r="H13" s="20"/>
     </row>
@@ -1601,11 +1822,11 @@
       <c r="A14" s="15">
         <v>10.0</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="11"/>
       <c r="H14" s="20"/>
     </row>
@@ -1613,11 +1834,11 @@
       <c r="A15" s="15">
         <v>11.0</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="11"/>
       <c r="H15" s="20"/>
     </row>
@@ -1625,11 +1846,11 @@
       <c r="A16" s="15">
         <v>12.0</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="11"/>
       <c r="H16" s="20"/>
     </row>
@@ -1637,11 +1858,11 @@
       <c r="A17" s="15">
         <v>13.0</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="11"/>
       <c r="H17" s="20"/>
     </row>
@@ -1649,11 +1870,11 @@
       <c r="A18" s="15">
         <v>14.0</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="11"/>
       <c r="H18" s="20"/>
     </row>
@@ -1661,11 +1882,11 @@
       <c r="A19" s="15">
         <v>15.0</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="11"/>
       <c r="H19" s="20"/>
     </row>
@@ -1673,11 +1894,11 @@
       <c r="A20" s="15">
         <v>16.0</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="11"/>
       <c r="H20" s="20"/>
     </row>
@@ -1685,11 +1906,11 @@
       <c r="A21" s="15">
         <v>17.0</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="21"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="11"/>
       <c r="H21" s="20"/>
     </row>
@@ -1721,4 +1942,339 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.0"/>
+    <col customWidth="1" min="2" max="2" width="11.38"/>
+    <col customWidth="1" min="3" max="3" width="33.75"/>
+    <col customWidth="1" min="4" max="4" width="44.88"/>
+    <col customWidth="1" min="5" max="5" width="47.38"/>
+    <col customWidth="1" min="6" max="6" width="9.63"/>
+    <col customWidth="1" min="7" max="7" width="0.38"/>
+    <col customWidth="1" min="8" max="8" width="31.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="66">
+        <v>45215.0</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="65">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="66">
+        <v>45215.0</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="66">
+        <v>45215.0</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>11.0</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>13.0</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/account/test case/テストケース作成.xlsx
+++ b/account/test case/テストケース作成.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="194">
   <si>
     <t>単体テスト</t>
   </si>
@@ -172,217 +172,214 @@
 記号（ハイフンとスペース）のみ入力可</t>
   </si>
   <si>
+    <t>入力チェック</t>
+  </si>
+  <si>
+    <t>各項目に正しいデータ入力し【確認する】クリック</t>
+  </si>
+  <si>
+    <t>エラーメッセージ表示されない・確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>入力チェック(エラー時)</t>
+  </si>
+  <si>
+    <t>必須項目を入力せずに【確認する】クリック</t>
+  </si>
+  <si>
+    <t>各項目にエラーメッセージを赤宇表示・確認画面に遷移しない</t>
+  </si>
+  <si>
+    <t>パスワードハッシュ化</t>
+  </si>
+  <si>
+    <t>パスワード項目に入力しDBへ登録</t>
+  </si>
+  <si>
+    <t>パスワードはハッシュ化されてDBに登録</t>
+  </si>
+  <si>
+    <t>入力保持</t>
+  </si>
+  <si>
+    <t>確認画面から【前に戻る】ボタンクリック</t>
+  </si>
+  <si>
+    <t>各項目に入力値がセットされている</t>
+  </si>
+  <si>
+    <t>郵便番号[0000000]登録</t>
+  </si>
+  <si>
+    <t>郵便番号を全て[0]で入力しDBへ登録</t>
+  </si>
+  <si>
+    <t>DB上でも[0000000]で表示される</t>
+  </si>
+  <si>
+    <t>確認画面</t>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+  </si>
+  <si>
+    <t>登録画面より【確認する】クリック</t>
+  </si>
+  <si>
+    <t>登録画面の入力値はテキスト表示</t>
+  </si>
+  <si>
+    <t>パスワード表示は[●]表示</t>
+  </si>
+  <si>
+    <t>登録画面にてパスワード入力し確認画面に遷移後</t>
+  </si>
+  <si>
+    <t>パスワードは[●]表示</t>
+  </si>
+  <si>
+    <t>【登録する】ボタン</t>
+  </si>
+  <si>
+    <t>【登録する】ボタンクリック</t>
+  </si>
+  <si>
+    <t>登録完了画面に遷移</t>
+  </si>
+  <si>
+    <t>エラー時は完了画面にてメッセージ表示</t>
+  </si>
+  <si>
+    <t>【前に戻る】ボタン</t>
+  </si>
+  <si>
+    <t>【前に戻る】ボタンクリック</t>
+  </si>
+  <si>
+    <t>登録画面に遷移</t>
+  </si>
+  <si>
+    <t>登録画面での入力値は保持状態</t>
+  </si>
+  <si>
+    <t>完了画面</t>
+  </si>
+  <si>
+    <t>登録完了メッセージ表示</t>
+  </si>
+  <si>
+    <t>確認画面から入力内容を【登録する】クリック</t>
+  </si>
+  <si>
+    <t>画面中央に大きくテキスト表示</t>
+  </si>
+  <si>
+    <t>DB登録時にエラー発生する場合エラー表示</t>
+  </si>
+  <si>
+    <t>画面中央に大きくエラーメッセージを赤宇表示</t>
+  </si>
+  <si>
+    <t>【TOPページへ戻る】ボタン</t>
+  </si>
+  <si>
+    <t>【TOPページへ戻る】クリック</t>
+  </si>
+  <si>
+    <t>TOPページに遷移</t>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+  </si>
+  <si>
+    <t>【性別】をDB登録時のパラメータ</t>
+  </si>
+  <si>
+    <t>確認画面より【登録する】し正常に登録完了時</t>
+  </si>
+  <si>
+    <t>DB上では、0＝「男」1＝「女」で登録</t>
+  </si>
+  <si>
+    <t>【アカウント権限】をDB登録時のパラメータ</t>
+  </si>
+  <si>
+    <t>DB上では、0＝「一般」1＝「管理者」で登録</t>
+  </si>
+  <si>
+    <t>【削除フラグ】のパラメータ 0</t>
+  </si>
+  <si>
+    <t>DBにレコードを追加</t>
+  </si>
+  <si>
+    <t>0に設定されている(有効状態)</t>
+  </si>
+  <si>
+    <t>デフォルト値として「0」表示になる</t>
+  </si>
+  <si>
+    <t>【削除フラグ】のパラメータ 1</t>
+  </si>
+  <si>
+    <t>削除フラグが「0」のレコードを論理的に削除する</t>
+  </si>
+  <si>
+    <t>1に設定されている(無効状態)</t>
+  </si>
+  <si>
+    <t>SQL UPDATE文を使用 (実際には削除されずデータは残る)</t>
+  </si>
+  <si>
+    <t>２、アカウント一覧</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面への遷移</t>
+  </si>
+  <si>
+    <t>トップページから「アカウント一覧ボタン」クリック</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面が表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+  </si>
+  <si>
+    <t>「ID」の表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面にアクセス</t>
+  </si>
+  <si>
+    <t>登録情報の「ID」が正しく画面に表示される</t>
+  </si>
+  <si>
+    <t>名前(姓) (名)の表示</t>
+  </si>
+  <si>
+    <t>登録情報の名前  (姓)  (名)が正しく画面に表示される</t>
+  </si>
+  <si>
+    <t>カナ(姓) (名)の表示</t>
+  </si>
+  <si>
+    <t>登録情報のカナ  (姓)  (名)が正しく画面に表示される</t>
+  </si>
+  <si>
+    <t>メールアドレスの表示</t>
+  </si>
+  <si>
+    <t>登録情報の「メールアドレス」が正しく画面に表示される</t>
+  </si>
+  <si>
+    <t>性別の表示</t>
+  </si>
+  <si>
+    <t>登録情報に基づいて性別が正しく表示される</t>
+  </si>
+  <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>【\-s】と変更すると「ハイフン」の指定も可能に</t>
-  </si>
-  <si>
-    <t>入力チェック</t>
-  </si>
-  <si>
-    <t>各項目に正しいデータ入力し【確認する】クリック</t>
-  </si>
-  <si>
-    <t>エラーメッセージ表示されない・確認画面に遷移する</t>
-  </si>
-  <si>
-    <t>入力チェック(エラー時)</t>
-  </si>
-  <si>
-    <t>必須項目を入力せずに【確認する】クリック</t>
-  </si>
-  <si>
-    <t>各項目にエラーメッセージを赤宇表示・確認画面に遷移しない</t>
-  </si>
-  <si>
-    <t>パスワードハッシュ化</t>
-  </si>
-  <si>
-    <t>パスワード項目に入力しDBへ登録</t>
-  </si>
-  <si>
-    <t>パスワードはハッシュ化されてDBに登録</t>
-  </si>
-  <si>
-    <t>入力保持</t>
-  </si>
-  <si>
-    <t>確認画面から【前に戻る】ボタンクリック</t>
-  </si>
-  <si>
-    <t>各項目に入力値がセットされている</t>
-  </si>
-  <si>
-    <t>郵便番号[0000000]登録</t>
-  </si>
-  <si>
-    <t>郵便番号を全て[0]で入力しDBへ登録</t>
-  </si>
-  <si>
-    <t>DB上でも[0000000]で表示される</t>
-  </si>
-  <si>
-    <t>確認画面</t>
-  </si>
-  <si>
-    <t>テキスト表示</t>
-  </si>
-  <si>
-    <t>登録画面より【確認する】クリック</t>
-  </si>
-  <si>
-    <t>登録画面の入力値はテキスト表示</t>
-  </si>
-  <si>
-    <t>パスワード表示は[●]表示</t>
-  </si>
-  <si>
-    <t>登録画面にてパスワード入力し確認画面に遷移後</t>
-  </si>
-  <si>
-    <t>パスワードは[●]表示</t>
-  </si>
-  <si>
-    <t>【登録する】ボタン</t>
-  </si>
-  <si>
-    <t>【登録する】ボタンクリック</t>
-  </si>
-  <si>
-    <t>登録完了画面に遷移</t>
-  </si>
-  <si>
-    <t>エラー時は完了画面にてメッセージ表示</t>
-  </si>
-  <si>
-    <t>【前に戻る】ボタン</t>
-  </si>
-  <si>
-    <t>【前に戻る】ボタンクリック</t>
-  </si>
-  <si>
-    <t>登録画面に遷移</t>
-  </si>
-  <si>
-    <t>登録画面での入力値は保持状態</t>
-  </si>
-  <si>
-    <t>完了画面</t>
-  </si>
-  <si>
-    <t>登録完了メッセージ表示</t>
-  </si>
-  <si>
-    <t>確認画面から入力内容を【登録する】クリック</t>
-  </si>
-  <si>
-    <t>画面中央に大きくテキスト表示</t>
-  </si>
-  <si>
-    <t>DB登録時にエラー発生する場合エラー表示</t>
-  </si>
-  <si>
-    <t>画面中央に大きくエラーメッセージを赤宇表示</t>
-  </si>
-  <si>
-    <t>【TOPページへ戻る】ボタン</t>
-  </si>
-  <si>
-    <t>【TOPページへ戻る】クリック</t>
-  </si>
-  <si>
-    <t>TOPページに遷移</t>
-  </si>
-  <si>
-    <t>テーブル定義</t>
-  </si>
-  <si>
-    <t>【性別】をDB登録時のパラメータ</t>
-  </si>
-  <si>
-    <t>確認画面より【登録する】し正常に登録完了時</t>
-  </si>
-  <si>
-    <t>DB上では、0＝「男」1＝「女」で登録</t>
-  </si>
-  <si>
-    <t>【アカウント権限】をDB登録時のパラメータ</t>
-  </si>
-  <si>
-    <t>DB上では、0＝「一般」1＝「管理者」で登録</t>
-  </si>
-  <si>
-    <t>【削除フラグ】のパラメータ 0</t>
-  </si>
-  <si>
-    <t>DBにレコードを追加</t>
-  </si>
-  <si>
-    <t>0に設定されている(有効状態)</t>
-  </si>
-  <si>
-    <t>デフォルト値として「0」表示になる</t>
-  </si>
-  <si>
-    <t>【削除フラグ】のパラメータ 1</t>
-  </si>
-  <si>
-    <t>削除フラグが「0」のレコードを論理的に削除する</t>
-  </si>
-  <si>
-    <t>1に設定されている(無効状態)</t>
-  </si>
-  <si>
-    <t>SQL UPDATE文を使用 (実際には削除されずデータは残る)</t>
-  </si>
-  <si>
-    <t>２、アカウント一覧</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面への遷移</t>
-  </si>
-  <si>
-    <t>トップページから「アカウント一覧ボタン」クリック</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面が表示</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面</t>
-  </si>
-  <si>
-    <t>「ID」の表示</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面にアクセス</t>
-  </si>
-  <si>
-    <t>登録情報の「ID」が正しく画面に表示される</t>
-  </si>
-  <si>
-    <t>名前(姓) (名)の表示</t>
-  </si>
-  <si>
-    <t>登録情報の名前  (姓)  (名)が正しく画面に表示される</t>
-  </si>
-  <si>
-    <t>カナ(姓) (名)の表示</t>
-  </si>
-  <si>
-    <t>登録情報のカナ  (姓)  (名)が正しく画面に表示される</t>
-  </si>
-  <si>
-    <t>メールアドレスの表示</t>
-  </si>
-  <si>
-    <t>登録情報の「メールアドレス」が正しく画面に表示される</t>
-  </si>
-  <si>
-    <t>性別の表示</t>
-  </si>
-  <si>
-    <t>登録情報に基づいて性別が正しく表示される</t>
   </si>
   <si>
     <t>パラメータの数値、0 =「男」、1 =「女」</t>
@@ -597,6 +594,16 @@
   </si>
   <si>
     <t>アカウント一覧画面に追加されない</t>
+  </si>
+  <si>
+    <t>「更新日時」の表示</t>
+  </si>
+  <si>
+    <t>アカウント登録する→アカウント一覧を確認する
+(または、更新する)</t>
+  </si>
+  <si>
+    <t>更新していない場合は、空欄、更新した場合は年月日が表示</t>
   </si>
   <si>
     <t>システム名：</t>
@@ -799,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1012,9 +1019,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1712,12 +1716,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G22" s="25"/>
-      <c r="H22" s="26" t="s">
-        <v>53</v>
-      </c>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="15">
@@ -1727,13 +1729,13 @@
         <v>45215.0</v>
       </c>
       <c r="C23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>19</v>
@@ -1749,13 +1751,13 @@
         <v>45215.0</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>19</v>
@@ -1771,13 +1773,13 @@
         <v>45215.0</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>19</v>
@@ -1793,13 +1795,13 @@
         <v>45215.0</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>19</v>
@@ -1815,23 +1817,23 @@
         <v>45215.0</v>
       </c>
       <c r="C27" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>68</v>
-      </c>
       <c r="F27" s="34" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="35"/>
     </row>
     <row r="28">
       <c r="A28" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1849,13 +1851,13 @@
         <v>45215.0</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>19</v>
@@ -1871,13 +1873,13 @@
         <v>45215.0</v>
       </c>
       <c r="C30" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>19</v>
@@ -1893,20 +1895,20 @@
         <v>45215.0</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>78</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="17.25" customHeight="1">
@@ -1917,25 +1919,25 @@
         <v>45215.0</v>
       </c>
       <c r="C32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>82</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1953,13 +1955,13 @@
         <v>45215.0</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>19</v>
@@ -1975,13 +1977,13 @@
         <v>45215.0</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>19</v>
@@ -1997,13 +1999,13 @@
         <v>45215.0</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>19</v>
@@ -2013,7 +2015,7 @@
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2031,13 +2033,13 @@
         <v>45215.0</v>
       </c>
       <c r="C38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>19</v>
@@ -2053,13 +2055,13 @@
         <v>45215.0</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>19</v>
@@ -2075,20 +2077,20 @@
         <v>45215.0</v>
       </c>
       <c r="C40" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1">
@@ -2099,25 +2101,25 @@
         <v>45215.0</v>
       </c>
       <c r="C41" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" ht="39.75" customHeight="1">
       <c r="A42" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2147,13 +2149,13 @@
         <v>45220.0</v>
       </c>
       <c r="C44" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="F44" s="49" t="s">
         <v>19</v>
@@ -2163,7 +2165,7 @@
     </row>
     <row r="45">
       <c r="A45" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2181,13 +2183,13 @@
         <v>45220.0</v>
       </c>
       <c r="C46" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>114</v>
       </c>
       <c r="F46" s="55" t="s">
         <v>19</v>
@@ -2203,13 +2205,13 @@
         <v>45221.0</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>19</v>
@@ -2225,13 +2227,13 @@
         <v>45221.0</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>19</v>
@@ -2247,13 +2249,13 @@
         <v>45221.0</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>19</v>
@@ -2269,20 +2271,20 @@
         <v>45221.0</v>
       </c>
       <c r="C50" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="55" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>19</v>
       </c>
       <c r="G50" s="50"/>
       <c r="H50" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" ht="17.25" customHeight="1">
@@ -2293,20 +2295,20 @@
         <v>45221.0</v>
       </c>
       <c r="C51" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>125</v>
-      </c>
       <c r="F51" s="55" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G51" s="50"/>
       <c r="H51" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1">
@@ -2317,20 +2319,20 @@
         <v>45221.0</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="E52" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>129</v>
-      </c>
       <c r="F52" s="55" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G52" s="50"/>
       <c r="H52" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" ht="17.25" customHeight="1">
@@ -2341,13 +2343,13 @@
         <v>45221.0</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>19</v>
@@ -2363,16 +2365,16 @@
         <v>45221.0</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G54" s="50"/>
       <c r="H54" s="51"/>
@@ -2385,16 +2387,16 @@
         <v>45221.0</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>136</v>
-      </c>
       <c r="F55" s="49" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G55" s="50"/>
       <c r="H55" s="51"/>
@@ -2407,16 +2409,16 @@
         <v>45221.0</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="E56" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="F56" s="49" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G56" s="50"/>
       <c r="H56" s="51"/>
@@ -2429,13 +2431,13 @@
         <v>45221.0</v>
       </c>
       <c r="C57" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>19</v>
@@ -2573,7 +2575,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.38"/>
     <col customWidth="1" min="2" max="2" width="14.13"/>
-    <col customWidth="1" min="3" max="3" width="35.88"/>
+    <col customWidth="1" min="3" max="3" width="39.5"/>
     <col customWidth="1" min="4" max="4" width="43.5"/>
     <col customWidth="1" min="5" max="5" width="48.25"/>
     <col customWidth="1" min="6" max="6" width="7.0"/>
@@ -2583,7 +2585,7 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2604,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -2656,20 +2658,20 @@
         <v>45215.0</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>146</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="30.75" customHeight="1">
@@ -2680,20 +2682,20 @@
         <v>45215.0</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="E7" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="F7" s="62" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2704,13 +2706,13 @@
         <v>45215.0</v>
       </c>
       <c r="C8" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="E8" s="67" t="s">
         <v>153</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>154</v>
       </c>
       <c r="F8" s="62" t="s">
         <v>19</v>
@@ -2726,13 +2728,13 @@
         <v>45215.0</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="F9" s="62" t="s">
         <v>19</v>
@@ -2748,20 +2750,20 @@
         <v>45215.0</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>160</v>
-      </c>
       <c r="F10" s="62" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
@@ -2772,13 +2774,13 @@
         <v>45215.0</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>19</v>
@@ -2794,13 +2796,13 @@
         <v>45215.0</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>19</v>
@@ -2816,13 +2818,13 @@
         <v>45215.0</v>
       </c>
       <c r="C13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>162</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>19</v>
@@ -2838,13 +2840,13 @@
         <v>45220.0</v>
       </c>
       <c r="C14" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>166</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>19</v>
@@ -2854,7 +2856,7 @@
     </row>
     <row r="15" ht="39.0" customHeight="1">
       <c r="A15" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2884,13 +2886,13 @@
         <v>45220.0</v>
       </c>
       <c r="C17" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="E17" s="72" t="s">
         <v>168</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>169</v>
       </c>
       <c r="F17" s="73" t="s">
         <v>19</v>
@@ -2900,7 +2902,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2918,13 +2920,13 @@
         <v>45221.0</v>
       </c>
       <c r="C19" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="72" t="s">
         <v>171</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>172</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>19</v>
@@ -2940,13 +2942,13 @@
         <v>45221.0</v>
       </c>
       <c r="C20" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="72" t="s">
         <v>173</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>174</v>
       </c>
       <c r="F20" s="62" t="s">
         <v>19</v>
@@ -2962,13 +2964,13 @@
         <v>45221.0</v>
       </c>
       <c r="C21" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="E21" s="75" t="s">
         <v>176</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>177</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>19</v>
@@ -2984,20 +2986,20 @@
         <v>45221.0</v>
       </c>
       <c r="C22" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>179</v>
-      </c>
       <c r="F22" s="73" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
@@ -3008,20 +3010,20 @@
         <v>45221.0</v>
       </c>
       <c r="C23" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>182</v>
-      </c>
       <c r="F23" s="73" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
@@ -3032,13 +3034,13 @@
         <v>45221.0</v>
       </c>
       <c r="C24" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="E24" s="72" t="s">
         <v>185</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>186</v>
       </c>
       <c r="F24" s="62" t="s">
         <v>19</v>
@@ -3050,11 +3052,21 @@
       <c r="A25" s="69">
         <v>8.0</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="77"/>
+      <c r="B25" s="57">
+        <v>45222.0</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>121</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="72"/>
     </row>
@@ -3065,8 +3077,8 @@
       <c r="B26" s="58"/>
       <c r="C26" s="72"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="78"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="50"/>
       <c r="H26" s="72"/>
     </row>
@@ -3078,7 +3090,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="51"/>
       <c r="E27" s="72"/>
-      <c r="F27" s="78"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="50"/>
       <c r="H27" s="72"/>
     </row>
@@ -3090,7 +3102,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="51"/>
       <c r="E28" s="72"/>
-      <c r="F28" s="78"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72"/>
     </row>
@@ -3102,7 +3114,7 @@
       <c r="C29" s="72"/>
       <c r="D29" s="51"/>
       <c r="E29" s="72"/>
-      <c r="F29" s="78"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="50"/>
       <c r="H29" s="72"/>
     </row>
@@ -3114,7 +3126,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="51"/>
       <c r="E30" s="72"/>
-      <c r="F30" s="78"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="50"/>
       <c r="H30" s="72"/>
     </row>
@@ -3126,7 +3138,7 @@
       <c r="C31" s="72"/>
       <c r="D31" s="51"/>
       <c r="E31" s="72"/>
-      <c r="F31" s="78"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="50"/>
       <c r="H31" s="72"/>
     </row>
@@ -3138,7 +3150,7 @@
       <c r="C32" s="72"/>
       <c r="D32" s="51"/>
       <c r="E32" s="72"/>
-      <c r="F32" s="78"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="50"/>
       <c r="H32" s="72"/>
     </row>
@@ -3150,7 +3162,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="51"/>
       <c r="E33" s="72"/>
-      <c r="F33" s="78"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="50"/>
       <c r="H33" s="72"/>
     </row>
@@ -3162,7 +3174,7 @@
       <c r="C34" s="72"/>
       <c r="D34" s="51"/>
       <c r="E34" s="72"/>
-      <c r="F34" s="78"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="50"/>
       <c r="H34" s="72"/>
     </row>
@@ -3174,7 +3186,7 @@
       <c r="C35" s="72"/>
       <c r="D35" s="51"/>
       <c r="E35" s="72"/>
-      <c r="F35" s="78"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="50"/>
       <c r="H35" s="72"/>
     </row>
@@ -3245,39 +3257,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="79"/>
-      <c r="C1" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="82" t="s">
+      <c r="A1" s="78"/>
+      <c r="C1" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="85" t="s">
+      <c r="C2" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3288,31 +3300,31 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="89">
+      <c r="A5" s="88">
         <v>1.0</v>
       </c>
       <c r="B5" s="22"/>
@@ -3326,7 +3338,7 @@
       <c r="H5" s="72"/>
     </row>
     <row r="6">
-      <c r="A6" s="89">
+      <c r="A6" s="88">
         <v>2.0</v>
       </c>
       <c r="B6" s="22"/>
@@ -3338,7 +3350,7 @@
       <c r="H6" s="74"/>
     </row>
     <row r="7">
-      <c r="A7" s="89">
+      <c r="A7" s="88">
         <v>3.0</v>
       </c>
       <c r="B7" s="22"/>
@@ -3350,184 +3362,184 @@
       <c r="H7" s="72"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="89">
+      <c r="A8" s="88">
         <v>4.0</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="78"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="50"/>
       <c r="H8" s="72"/>
     </row>
     <row r="9">
-      <c r="A9" s="89">
+      <c r="A9" s="88">
         <v>5.0</v>
       </c>
-      <c r="B9" s="90"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="78"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="50"/>
       <c r="H9" s="72"/>
     </row>
     <row r="10">
-      <c r="A10" s="89">
+      <c r="A10" s="88">
         <v>6.0</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="78"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="50"/>
       <c r="H10" s="72"/>
     </row>
     <row r="11">
-      <c r="A11" s="89">
+      <c r="A11" s="88">
         <v>7.0</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="78"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="50"/>
       <c r="H11" s="72"/>
     </row>
     <row r="12">
-      <c r="A12" s="89">
+      <c r="A12" s="88">
         <v>8.0</v>
       </c>
-      <c r="B12" s="90"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="78"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="50"/>
       <c r="H12" s="72"/>
     </row>
     <row r="13">
-      <c r="A13" s="89">
+      <c r="A13" s="88">
         <v>9.0</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="78"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="50"/>
       <c r="H13" s="72"/>
     </row>
     <row r="14">
-      <c r="A14" s="89">
+      <c r="A14" s="88">
         <v>10.0</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="78"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="50"/>
       <c r="H14" s="72"/>
     </row>
     <row r="15">
-      <c r="A15" s="89">
+      <c r="A15" s="88">
         <v>11.0</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="78"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="50"/>
       <c r="H15" s="72"/>
     </row>
     <row r="16">
-      <c r="A16" s="89">
+      <c r="A16" s="88">
         <v>12.0</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="78"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="50"/>
       <c r="H16" s="72"/>
     </row>
     <row r="17">
-      <c r="A17" s="89">
+      <c r="A17" s="88">
         <v>13.0</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="78"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="50"/>
       <c r="H17" s="72"/>
     </row>
     <row r="18">
-      <c r="A18" s="89">
+      <c r="A18" s="88">
         <v>14.0</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="78"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="50"/>
       <c r="H18" s="72"/>
     </row>
     <row r="19">
-      <c r="A19" s="89">
+      <c r="A19" s="88">
         <v>15.0</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="78"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="50"/>
       <c r="H19" s="72"/>
     </row>
     <row r="20">
-      <c r="A20" s="89">
+      <c r="A20" s="88">
         <v>16.0</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="78"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="50"/>
       <c r="H20" s="72"/>
     </row>
     <row r="21">
-      <c r="A21" s="89">
+      <c r="A21" s="88">
         <v>17.0</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="78"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="50"/>
       <c r="H21" s="72"/>
     </row>
     <row r="22">
-      <c r="A22" s="89">
+      <c r="A22" s="88">
         <v>18.0</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="78"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="50"/>
       <c r="H22" s="72"/>
     </row>

--- a/account/test case/テストケース作成.xlsx
+++ b/account/test case/テストケース作成.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="347">
   <si>
     <t>単体テスト</t>
   </si>
@@ -439,6 +439,252 @@
     <t>アカウント一覧がIDの降順で表示される</t>
   </si>
   <si>
+    <t>３、アカウント操作(削除・更新)</t>
+  </si>
+  <si>
+    <t>削除(削除画面)</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面からの画面遷移</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面「削除」ボタンクリック</t>
+  </si>
+  <si>
+    <t>削除画面が表示される</t>
+  </si>
+  <si>
+    <t>「名前（姓）（名）」の表示</t>
+  </si>
+  <si>
+    <t>アカウント情報をテキスト表示</t>
+  </si>
+  <si>
+    <t>「カナ（姓）（名）」の表示</t>
+  </si>
+  <si>
+    <t>「メールアドレス」の表示</t>
+  </si>
+  <si>
+    <t>「パスワード」の表示</t>
+  </si>
+  <si>
+    <t>アカウント情報を「●」で表示</t>
+  </si>
+  <si>
+    <t>[●]表示が1個しか表示されなかった</t>
+  </si>
+  <si>
+    <t>「性別」の表示</t>
+  </si>
+  <si>
+    <t>「郵便番号」の表示</t>
+  </si>
+  <si>
+    <t>DBに格納した際の「ゼロパディング」で表示されている</t>
+  </si>
+  <si>
+    <t>「住所   (都道府県)   」の表示</t>
+  </si>
+  <si>
+    <t>「住所（市区町村）」の表示</t>
+  </si>
+  <si>
+    <t>「住所（番地）」の表示</t>
+  </si>
+  <si>
+    <t>「アカウント権限」の表示</t>
+  </si>
+  <si>
+    <t>画面遷移</t>
+  </si>
+  <si>
+    <t>「確認する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>削除(削除確認画面)</t>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+  </si>
+  <si>
+    <t>本当に削除してよろしいですか？の表示がされる</t>
+  </si>
+  <si>
+    <t>「削除する」ボタン 1</t>
+  </si>
+  <si>
+    <t>「削除する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面に遷移する</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンクリック</t>
+  </si>
+  <si>
+    <t>アカウント削除画面に遷移する</t>
+  </si>
+  <si>
+    <t>「削除する」ボタン 2</t>
+  </si>
+  <si>
+    <t>削除したアカウントの削除フラグを1に更新する</t>
+  </si>
+  <si>
+    <t>削除(削除完了画面)</t>
+  </si>
+  <si>
+    <t>削除完了画面 1</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合のエラーメッセージ表示する</t>
+  </si>
+  <si>
+    <t>削除完了画面 2</t>
+  </si>
+  <si>
+    <t>「削除完了しました」の表示がされる</t>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタン</t>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタンクリック</t>
+  </si>
+  <si>
+    <t>D.IブログのTOPページに遷移</t>
+  </si>
+  <si>
+    <t>2回目以降の削除実行時</t>
+  </si>
+  <si>
+    <t>削除実行を2回する</t>
+  </si>
+  <si>
+    <t>削除済であることを知らせるメッセージ</t>
+  </si>
+  <si>
+    <t>更新(更新画面)</t>
+  </si>
+  <si>
+    <t>「更新」ボタンクリック後の各項目</t>
+  </si>
+  <si>
+    <t>各項目の初期値はアカウント情報の表示</t>
+  </si>
+  <si>
+    <t>郵便番号の初期値</t>
+  </si>
+  <si>
+    <t>「更新」ボタンクリック後の郵便番号項目</t>
+  </si>
+  <si>
+    <t>アカウント登録時の番号での表示がされる</t>
+  </si>
+  <si>
+    <t>「ゼロパディング」指定での表示がされている</t>
+  </si>
+  <si>
+    <t>更新画面にて「名前」を入力</t>
+  </si>
+  <si>
+    <t>更新画面にて「カナ」を入力</t>
+  </si>
+  <si>
+    <t>更新画面にて「メールアドレス」を入力</t>
+  </si>
+  <si>
+    <t>更新画面にて「パスワード」を入力</t>
+  </si>
+  <si>
+    <t>更新画面にアクセス</t>
+  </si>
+  <si>
+    <t>パスワードは[●]で表示される</t>
+  </si>
+  <si>
+    <t>ハッシュ化された文字数分隠されて表示されてしまった</t>
+  </si>
+  <si>
+    <t>パスワード入力</t>
+  </si>
+  <si>
+    <t>パスワードの入力ができる</t>
+  </si>
+  <si>
+    <t>ハッシュ化されたPWの文のスペースが空きすぐに入力できない</t>
+  </si>
+  <si>
+    <t>更新画面にて「郵便番号」を入力</t>
+  </si>
+  <si>
+    <t>更新画面にて「住所」を入力</t>
+  </si>
+  <si>
+    <t>スペース入力できない・半角英数字</t>
+  </si>
+  <si>
+    <t>パスワードのみ入力保持されない</t>
+  </si>
+  <si>
+    <t>更新(更新確認画面)</t>
+  </si>
+  <si>
+    <t>更新画面より【確認する】クリック</t>
+  </si>
+  <si>
+    <t>更新画面の入力値はテキスト表示</t>
+  </si>
+  <si>
+    <t>更新画面にてパスワード入力し確認画面に遷移後</t>
+  </si>
+  <si>
+    <t>【更新する】ボタン</t>
+  </si>
+  <si>
+    <t>【更新する】ボタンクリック</t>
+  </si>
+  <si>
+    <t>更新完了画面に遷移</t>
+  </si>
+  <si>
+    <t>更新画面に遷移</t>
+  </si>
+  <si>
+    <t>更新(更新完了画面)</t>
+  </si>
+  <si>
+    <t>確認画面にて【更新する】ボタンクリック</t>
+  </si>
+  <si>
+    <t>更新完了のメッセージ表示され、該当アカウントの情報を更新</t>
+  </si>
+  <si>
+    <t>【更新する】ボタン  (エラー時)</t>
+  </si>
+  <si>
+    <t>エラー発生時のエラーメッセージが赤字で表示</t>
+  </si>
+  <si>
+    <t>【更新する】ボタン  (エラー時)２</t>
+  </si>
+  <si>
+    <t>該当アカウントの情報は更新はしない</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
@@ -596,6 +842,15 @@
     <t>アカウント一覧画面に追加されない</t>
   </si>
   <si>
+    <t>「登録日時」の表示</t>
+  </si>
+  <si>
+    <t>アカウント登録する→アカウント一覧を確認する</t>
+  </si>
+  <si>
+    <t>登録日時は年月日のみ表示</t>
+  </si>
+  <si>
     <t>「更新日時」の表示</t>
   </si>
   <si>
@@ -604,6 +859,237 @@
   </si>
   <si>
     <t>更新していない場合は、空欄、更新した場合は年月日が表示</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>削除画面での表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧→「削除」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当のアカウント情報はテキスト表示され確認できる</t>
+  </si>
+  <si>
+    <t>パスワードは「●」表示</t>
+  </si>
+  <si>
+    <t>TOPページから削除画面までの遷移</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント一覧」選択→
+一覧画面にて「削除」ボタンクリック</t>
+  </si>
+  <si>
+    <t>TOPページから削除画面まで遷移する</t>
+  </si>
+  <si>
+    <t>削除画面から完了画面遷移しTOPページに戻る</t>
+  </si>
+  <si>
+    <t>削除画面「確認する」クリック→「削除する」クリック→
+「TOPページ戻る」クリック</t>
+  </si>
+  <si>
+    <t>削除画面から完了画面まで遷移しTOPページに戻れる</t>
+  </si>
+  <si>
+    <t>削除画面「確認する」クリック→
+削除確認画面「前に戻る」ボタンクリック</t>
+  </si>
+  <si>
+    <t>削除画面に遷移し、該当の情報を再確認できる</t>
+  </si>
+  <si>
+    <t>「削除する」ボタン  (削除処理の仕様)</t>
+  </si>
+  <si>
+    <t>削除画面「確認する」クリック→
+削除確認画面「削除する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの削除フラグを1に更新し、
+アカウント一覧では、「無効」に更新される</t>
+  </si>
+  <si>
+    <t>「削除する」ボタン  (削除処理の仕様)  エラー時</t>
+  </si>
+  <si>
+    <t>削除画面「確認する」クリック→
+削除確認画面「削除する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの削除フラグは更新されず、
+エラーメッセージが赤字で表示される</t>
+  </si>
+  <si>
+    <t>２回目以降の「削除」実行</t>
+  </si>
+  <si>
+    <t>削除画面「確認する」→削除確認画面「削除する」→
+再度同じアカウントを削除実行する</t>
+  </si>
+  <si>
+    <t>アカウント一覧から「削除」ボタン押下後、
+削除済のメッセージ表示され、削除されていることを知らせる</t>
+  </si>
+  <si>
+    <t>「削除済です」等のメッセージ</t>
+  </si>
+  <si>
+    <t>削除されたアカウントの更新</t>
+  </si>
+  <si>
+    <t>アカウント一覧→「削除」ボタン→削除実行→
+アカウント一覧「更新」ボタン→更新実行</t>
+  </si>
+  <si>
+    <t>削除されたアカウントは更新されない</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新画面での表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧→「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>パスワードは[●]表示、DB登録時はハッシュ化</t>
+  </si>
+  <si>
+    <t>パスワードは「●」表示され、DB登録時はハッシュ化される</t>
+  </si>
+  <si>
+    <t>TOPページから更新画面までの遷移</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント一覧」選択→
+一覧画面にて「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>TOPページから更新画面まで遷移する</t>
+  </si>
+  <si>
+    <t>更新画面から完了画面遷移しTOPページに戻る</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→「更新する」クリック→
+「TOPページ戻る」クリック</t>
+  </si>
+  <si>
+    <t>更新画面から完了画面まで遷移しTOPページに戻れる</t>
+  </si>
+  <si>
+    <t>更新画面で入力した値の入力保持</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力→
+「確認する」クリック→確認画面「前に戻る」クリック</t>
+  </si>
+  <si>
+    <t>更新画面で入力した値が各項目にセットされ編集が可能</t>
+  </si>
+  <si>
+    <t>パスワードのみ入力保持されない
+※恐らく、セキュリティ観点の可能性</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力し更新までする→
+「TOPページ戻る」→[アカウント登録]選択</t>
+  </si>
+  <si>
+    <t>更新されたデータの入力値は次回以降の登録画面では
+削除され初期値に戻っていること</t>
+  </si>
+  <si>
+    <t>更新したデータが、
+「アカウント登録」画面に引き継がれている</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力→
+「確認する」クリック→「更新する」クリック</t>
+  </si>
+  <si>
+    <t>アカウント一覧での「更新日時」の表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新ボタン押下→情報を編集し更新→
+アカウント一覧確認  </t>
+  </si>
+  <si>
+    <t>更新日時に年月日のみ表示される</t>
+  </si>
+  <si>
+    <t>時間も反映されてしまっている</t>
+  </si>
+  <si>
+    <t>DBでの「更新日時」の表示</t>
+  </si>
+  <si>
+    <t>更新ボタン押下→情報を編集し更新→DBを確認</t>
+  </si>
+  <si>
+    <t>更新日時のみ更新された日時が表示される</t>
+  </si>
+  <si>
+    <t>更新後、登録日時が「NULL」になってしまう
+登録日時まで更新されている状態</t>
+  </si>
+  <si>
+    <t>更新した情報での表示</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」→「更新する」→
+アカウント一覧「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>更新された情報での表示がされる</t>
+  </si>
+  <si>
+    <t>アカウント権限のみ
+権限を変更しても一律「一般」で表示される</t>
+  </si>
+  <si>
+    <t>「更新する」ボタン  (更新処理の仕様)</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→
+更新確認画面「更新する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの情報を更新され、
+更新完了メッセージが表示される</t>
+  </si>
+  <si>
+    <t>「更新する」ボタン  (更新処理の仕様)  エラー時</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→
+更新確認画面「更新する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの更新はされず、
+エラーメッセージが赤字で表示される</t>
+  </si>
+  <si>
+    <t>２回目以降の「更新」実行</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」→更新確認画面「更新する」→
+再度同じアカウントを更新実行する</t>
+  </si>
+  <si>
+    <t>上書きされて更新できる</t>
+  </si>
+  <si>
+    <t>削除されたアカウントは更新できない</t>
+  </si>
+  <si>
+    <t>総合テストに近い</t>
   </si>
   <si>
     <t>システム名：</t>
@@ -806,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -971,9 +1457,80 @@
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1000,9 +1557,6 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1014,53 +1568,107 @@
     <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,10 +1902,10 @@
     <col customWidth="1" min="2" max="2" width="13.75"/>
     <col customWidth="1" min="3" max="3" width="37.63"/>
     <col customWidth="1" min="4" max="4" width="41.13"/>
-    <col customWidth="1" min="5" max="5" width="47.63"/>
+    <col customWidth="1" min="5" max="5" width="48.63"/>
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="7" max="7" width="0.38"/>
-    <col customWidth="1" min="8" max="8" width="44.75"/>
+    <col customWidth="1" min="8" max="8" width="48.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
@@ -2457,56 +3065,1339 @@
       <c r="G58" s="50"/>
       <c r="H58" s="51"/>
     </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c r="A59" s="46">
+    <row r="59" ht="36.0" customHeight="1">
+      <c r="A59" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="A60" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="50"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1">
+      <c r="A61" s="62">
+        <v>1.0</v>
+      </c>
+      <c r="B61" s="57">
+        <v>45228.0</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="63"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="A62" s="62">
+        <v>2.0</v>
+      </c>
+      <c r="B62" s="57">
+        <v>45228.0</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="50"/>
+      <c r="H62" s="63"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1">
+      <c r="A63" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="B63" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
+      <c r="A64" s="62">
+        <v>4.0</v>
+      </c>
+      <c r="B64" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="63"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="62">
+        <v>5.0</v>
+      </c>
+      <c r="B65" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="B66" s="65">
+        <v>45228.0</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="62">
+        <v>7.0</v>
+      </c>
+      <c r="B67" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="50"/>
+      <c r="H67" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="B68" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="B69" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="50"/>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="B70" s="65">
+        <v>45228.0</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="50"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="B71" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="50"/>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="62">
+        <v>12.0</v>
+      </c>
+      <c r="B72" s="68">
+        <v>45228.0</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="50"/>
+      <c r="H72" s="51"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="62">
+        <v>13.0</v>
+      </c>
+      <c r="B73" s="58"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="51"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c r="A74" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="50"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="62">
+        <v>14.0</v>
+      </c>
+      <c r="B75" s="65">
+        <v>45228.0</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="50"/>
+      <c r="H75" s="51"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="62">
         <v>15.0</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="51"/>
-    </row>
-    <row r="60" ht="17.25" customHeight="1">
-      <c r="A60" s="46">
+      <c r="B76" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="50"/>
+      <c r="H76" s="51"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="62">
         <v>16.0</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51"/>
-    </row>
-    <row r="61" ht="17.25" customHeight="1">
-      <c r="A61" s="46">
+      <c r="B77" s="65">
+        <v>45228.0</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="62">
         <v>17.0</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="51"/>
-    </row>
-    <row r="62" ht="17.25" customHeight="1">
-      <c r="A62" s="46">
+      <c r="B78" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="62">
         <v>18.0</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="51"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="63"/>
+    </row>
+    <row r="80" ht="17.25" customHeight="1">
+      <c r="A80" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="50"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="62">
+        <v>19.0</v>
+      </c>
+      <c r="B81" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="50"/>
+      <c r="H81" s="63"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="62">
+        <v>20.0</v>
+      </c>
+      <c r="B82" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="50"/>
+      <c r="H82" s="63"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="B83" s="64">
+        <v>45228.0</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="50"/>
+      <c r="H83" s="63"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="62">
+        <v>22.0</v>
+      </c>
+      <c r="B84" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="50"/>
+      <c r="H84" s="63"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="62">
+        <v>23.0</v>
+      </c>
+      <c r="B85" s="70"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="63"/>
+    </row>
+    <row r="86" ht="17.25" customHeight="1">
+      <c r="A86" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="50"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="62">
+        <v>24.0</v>
+      </c>
+      <c r="B87" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="50"/>
+      <c r="H87" s="63"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="62">
+        <v>25.0</v>
+      </c>
+      <c r="B88" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G88" s="50"/>
+      <c r="H88" s="63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="62">
+        <v>26.0</v>
+      </c>
+      <c r="B89" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="50"/>
+      <c r="H89" s="63"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="62">
+        <v>27.0</v>
+      </c>
+      <c r="B90" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C90" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="50"/>
+      <c r="H90" s="63"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="62">
+        <v>28.0</v>
+      </c>
+      <c r="B91" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C91" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="50"/>
+      <c r="H91" s="63"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="62">
+        <v>29.0</v>
+      </c>
+      <c r="B92" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C92" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="63"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="62">
+        <v>30.0</v>
+      </c>
+      <c r="B93" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="62">
+        <v>31.0</v>
+      </c>
+      <c r="B94" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C94" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="62">
+        <v>32.0</v>
+      </c>
+      <c r="B95" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="50"/>
+      <c r="H95" s="63"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="62">
+        <v>33.0</v>
+      </c>
+      <c r="B96" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="50"/>
+      <c r="H96" s="63"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="62">
+        <v>34.0</v>
+      </c>
+      <c r="B97" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="50"/>
+      <c r="H97" s="63"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="62">
+        <v>35.0</v>
+      </c>
+      <c r="B98" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="39"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="62">
+        <v>36.0</v>
+      </c>
+      <c r="B99" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="50"/>
+      <c r="H99" s="72"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="62">
+        <v>37.0</v>
+      </c>
+      <c r="B100" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C100" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="50"/>
+      <c r="H100" s="63"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="62">
+        <v>38.0</v>
+      </c>
+      <c r="B101" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C101" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="50"/>
+      <c r="H101" s="63"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="77">
+        <v>39.0</v>
+      </c>
+      <c r="B102" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="50"/>
+      <c r="H102" s="63"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="77">
+        <v>40.0</v>
+      </c>
+      <c r="B103" s="78">
+        <v>45228.0</v>
+      </c>
+      <c r="C103" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G103" s="50"/>
+      <c r="H103" s="82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="62">
+        <v>41.0</v>
+      </c>
+      <c r="B104" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="50"/>
+      <c r="H104" s="63"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="62">
+        <v>42.0</v>
+      </c>
+      <c r="B105" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="50"/>
+      <c r="H105" s="63"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="62">
+        <v>43.0</v>
+      </c>
+      <c r="B106" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="50"/>
+      <c r="H106" s="63"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="62">
+        <v>44.0</v>
+      </c>
+      <c r="B107" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="62">
+        <v>45.0</v>
+      </c>
+      <c r="B108" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="50"/>
+      <c r="H108" s="72"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="50"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="62">
+        <v>46.0</v>
+      </c>
+      <c r="B110" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="50"/>
+      <c r="H110" s="63"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="62">
+        <v>47.0</v>
+      </c>
+      <c r="B111" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="50"/>
+      <c r="H111" s="63"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="62">
+        <v>48.0</v>
+      </c>
+      <c r="B112" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="84"/>
+      <c r="H112" s="42"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="62">
+        <v>49.0</v>
+      </c>
+      <c r="B113" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F113" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="50"/>
+      <c r="H113" s="39"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="62">
+        <v>50.0</v>
+      </c>
+      <c r="B114" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="39"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="50"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="62">
+        <v>51.0</v>
+      </c>
+      <c r="B116" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="50"/>
+      <c r="H116" s="63"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="62">
+        <v>52.0</v>
+      </c>
+      <c r="B117" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="84"/>
+      <c r="H117" s="63"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="62">
+        <v>53.0</v>
+      </c>
+      <c r="B118" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="50"/>
+      <c r="H118" s="63"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="62">
+        <v>54.0</v>
+      </c>
+      <c r="B119" s="66">
+        <v>45228.0</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="50"/>
+      <c r="H119" s="63"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="62">
+        <v>55.0</v>
+      </c>
+      <c r="B120" s="85"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="63"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="62">
+        <v>56.0</v>
+      </c>
+      <c r="B121" s="85"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="102">
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -2541,16 +4432,15 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="F61:G61"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2576,16 +4466,16 @@
     <col customWidth="1" min="1" max="1" width="7.38"/>
     <col customWidth="1" min="2" max="2" width="14.13"/>
     <col customWidth="1" min="3" max="3" width="39.5"/>
-    <col customWidth="1" min="4" max="4" width="43.5"/>
+    <col customWidth="1" min="4" max="4" width="44.63"/>
     <col customWidth="1" min="5" max="5" width="48.25"/>
     <col customWidth="1" min="6" max="6" width="7.0"/>
     <col customWidth="1" min="7" max="7" width="0.38"/>
-    <col customWidth="1" min="8" max="8" width="38.13"/>
+    <col customWidth="1" min="8" max="8" width="42.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2606,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -2639,7 +4529,7 @@
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="13"/>
@@ -2658,20 +4548,20 @@
         <v>45215.0</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="26" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" ht="30.75" customHeight="1">
@@ -2682,20 +4572,20 @@
         <v>45215.0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>148</v>
+        <v>229</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>230</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="64" t="s">
-        <v>150</v>
+      <c r="H7" s="89" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2705,16 +4595,16 @@
       <c r="B8" s="22">
         <v>45215.0</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="62" t="s">
+      <c r="C8" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="11"/>
@@ -2728,15 +4618,15 @@
         <v>45215.0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="11"/>
@@ -2750,20 +4640,20 @@
         <v>45215.0</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="26" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
@@ -2777,12 +4667,12 @@
         <v>92</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="11"/>
@@ -2799,12 +4689,12 @@
         <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="11"/>
@@ -2817,16 +4707,16 @@
       <c r="B13" s="22">
         <v>45215.0</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>161</v>
+      <c r="C13" s="93" t="s">
+        <v>243</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="11"/>
@@ -2839,14 +4729,14 @@
       <c r="B14" s="22">
         <v>45220.0</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>163</v>
+      <c r="C14" s="93" t="s">
+        <v>245</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>19</v>
@@ -2855,7 +4745,7 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" ht="39.0" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="86" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="13"/>
@@ -2879,26 +4769,26 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="69">
+      <c r="A17" s="94">
         <v>1.0</v>
       </c>
       <c r="B17" s="58">
         <v>45220.0</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="73" t="s">
+      <c r="C17" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="97" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="50"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
@@ -2913,285 +4803,745 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="69">
+      <c r="A19" s="94">
         <v>2.0</v>
       </c>
       <c r="B19" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>169</v>
+      <c r="C19" s="96" t="s">
+        <v>251</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="74"/>
+      <c r="H19" s="98"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="69">
+      <c r="A20" s="94">
         <v>3.0</v>
       </c>
       <c r="B20" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>172</v>
+      <c r="C20" s="96" t="s">
+        <v>254</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="69">
+      <c r="A21" s="94">
         <v>4.0</v>
       </c>
       <c r="B21" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>174</v>
+      <c r="C21" s="96" t="s">
+        <v>256</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="99" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="50"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="69">
+      <c r="A22" s="94">
         <v>5.0</v>
       </c>
       <c r="B22" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>177</v>
+      <c r="C22" s="96" t="s">
+        <v>259</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="97" t="s">
         <v>121</v>
       </c>
       <c r="G22" s="50"/>
-      <c r="H22" s="72" t="s">
-        <v>179</v>
+      <c r="H22" s="96" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="69">
+      <c r="A23" s="94">
         <v>6.0</v>
       </c>
       <c r="B23" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>180</v>
+      <c r="C23" s="96" t="s">
+        <v>262</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="97" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="H23" s="72" t="s">
-        <v>182</v>
+      <c r="H23" s="96" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="69">
+      <c r="A24" s="94">
         <v>7.0</v>
       </c>
       <c r="B24" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>183</v>
+      <c r="C24" s="96" t="s">
+        <v>265</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="87" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
-      <c r="A25" s="69">
+      <c r="A25" s="94">
         <v>8.0</v>
       </c>
       <c r="B25" s="57">
         <v>45222.0</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>121</v>
+      <c r="C25" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="96"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="46">
         <v>9.0</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="72"/>
+      <c r="B26" s="100">
+        <v>45222.0</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
-      <c r="A27" s="46">
+      <c r="A27" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" ht="30.0" customHeight="1">
+      <c r="A29" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C29" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" ht="31.5" customHeight="1">
+      <c r="A30" s="77">
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C30" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="107"/>
+    </row>
+    <row r="31" ht="30.0" customHeight="1">
+      <c r="A31" s="77">
+        <v>3.0</v>
+      </c>
+      <c r="B31" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="107"/>
+    </row>
+    <row r="32" ht="30.0" customHeight="1">
+      <c r="A32" s="77">
+        <v>4.0</v>
+      </c>
+      <c r="B32" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" ht="30.0" customHeight="1">
+      <c r="A33" s="77">
+        <v>5.0</v>
+      </c>
+      <c r="B33" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="107"/>
+    </row>
+    <row r="34" ht="30.0" customHeight="1">
+      <c r="A34" s="77">
+        <v>6.0</v>
+      </c>
+      <c r="B34" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="111"/>
+    </row>
+    <row r="35" ht="30.0" customHeight="1">
+      <c r="A35" s="77">
+        <v>7.0</v>
+      </c>
+      <c r="B35" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C35" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" s="113" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="113" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" ht="30.0" customHeight="1">
+      <c r="A36" s="77">
+        <v>8.0</v>
+      </c>
+      <c r="B36" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="85"/>
+      <c r="H36" s="96"/>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" ht="30.0" customHeight="1">
+      <c r="A38" s="77">
+        <v>9.0</v>
+      </c>
+      <c r="B38" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="104"/>
+    </row>
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="77">
         <v>10.0</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="72"/>
-    </row>
-    <row r="28" ht="30.0" customHeight="1">
-      <c r="A28" s="46">
+      <c r="B39" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="101"/>
+    </row>
+    <row r="40" ht="30.0" customHeight="1">
+      <c r="A40" s="77">
         <v>11.0</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" ht="30.0" customHeight="1">
-      <c r="A29" s="46">
+      <c r="B40" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="107"/>
+    </row>
+    <row r="41" ht="30.0" customHeight="1">
+      <c r="A41" s="77">
         <v>12.0</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="72"/>
-    </row>
-    <row r="30" ht="30.0" customHeight="1">
-      <c r="A30" s="46">
+      <c r="B41" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="107"/>
+    </row>
+    <row r="42" ht="30.0" customHeight="1">
+      <c r="A42" s="77">
         <v>13.0</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="72"/>
-    </row>
-    <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="46">
+      <c r="B42" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="50"/>
+      <c r="H42" s="104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="A43" s="77">
         <v>14.0</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="72"/>
-    </row>
-    <row r="32" ht="30.0" customHeight="1">
-      <c r="A32" s="46">
+      <c r="B43" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" ht="30.0" customHeight="1">
+      <c r="A44" s="77">
         <v>15.0</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33" ht="30.0" customHeight="1">
-      <c r="A33" s="46">
+      <c r="B44" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="107"/>
+    </row>
+    <row r="45" ht="30.0" customHeight="1">
+      <c r="A45" s="77">
         <v>16.0</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="46">
+      <c r="B45" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="101"/>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="77">
         <v>17.0</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="72"/>
-    </row>
-    <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="46">
+      <c r="B46" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="104" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="77">
         <v>18.0</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="72"/>
+      <c r="B47" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C47" s="114" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" ht="30.0" customHeight="1">
+      <c r="A48" s="77">
+        <v>19.0</v>
+      </c>
+      <c r="B48" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C48" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="50"/>
+      <c r="H48" s="104" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" ht="30.0" customHeight="1">
+      <c r="A49" s="77">
+        <v>20.0</v>
+      </c>
+      <c r="B49" s="100">
+        <v>45230.0</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="107"/>
+    </row>
+    <row r="50" ht="30.0" customHeight="1">
+      <c r="A50" s="77">
+        <v>21.0</v>
+      </c>
+      <c r="B50" s="117">
+        <v>45230.0</v>
+      </c>
+      <c r="C50" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="107"/>
+    </row>
+    <row r="51" ht="30.0" customHeight="1">
+      <c r="A51" s="77">
+        <v>22.0</v>
+      </c>
+      <c r="B51" s="57">
+        <v>45230.0</v>
+      </c>
+      <c r="C51" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" s="113" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="107"/>
+    </row>
+    <row r="52" ht="30.0" customHeight="1">
+      <c r="A52" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="B52" s="22">
+        <v>45230.0</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="118"/>
+      <c r="H52" s="26" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="48">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -3213,18 +5563,33 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3257,39 +5622,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="78"/>
-      <c r="C1" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="119"/>
+      <c r="C1" s="120" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="84" t="s">
+      <c r="C2" s="124" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3300,248 +5665,248 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="128" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="127" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="88">
+      <c r="A5" s="129">
         <v>1.0</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="30"/>
       <c r="D5" s="48"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="97" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="72"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6">
-      <c r="A6" s="88">
+      <c r="A6" s="129">
         <v>2.0</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="30"/>
       <c r="D6" s="54"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="73"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="74"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7">
-      <c r="A7" s="88">
+      <c r="A7" s="129">
         <v>3.0</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="30"/>
       <c r="D7" s="48"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="73"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="50"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="88">
+      <c r="H7" s="96"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="129">
         <v>4.0</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="77"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="72"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9">
-      <c r="A9" s="88">
+      <c r="A9" s="129">
         <v>5.0</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="31" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="77"/>
+      <c r="F9" s="132"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10">
-      <c r="A10" s="88">
+      <c r="A10" s="129">
         <v>6.0</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="77"/>
+      <c r="F10" s="132"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="72"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11">
-      <c r="A11" s="88">
+      <c r="A11" s="129">
         <v>7.0</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="77"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12">
-      <c r="A12" s="88">
+      <c r="A12" s="129">
         <v>8.0</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="77"/>
+      <c r="F12" s="132"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13">
-      <c r="A13" s="88">
+      <c r="A13" s="129">
         <v>9.0</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="77"/>
+      <c r="F13" s="132"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="96"/>
     </row>
     <row r="14">
-      <c r="A14" s="88">
+      <c r="A14" s="129">
         <v>10.0</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="77"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15">
-      <c r="A15" s="88">
+      <c r="A15" s="129">
         <v>11.0</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="77"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="96"/>
     </row>
     <row r="16">
-      <c r="A16" s="88">
+      <c r="A16" s="129">
         <v>12.0</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="77"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="96"/>
     </row>
     <row r="17">
-      <c r="A17" s="88">
+      <c r="A17" s="129">
         <v>13.0</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="77"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18">
-      <c r="A18" s="88">
+      <c r="A18" s="129">
         <v>14.0</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="77"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19">
-      <c r="A19" s="88">
+      <c r="A19" s="129">
         <v>15.0</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="77"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20">
-      <c r="A20" s="88">
+      <c r="A20" s="129">
         <v>16.0</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="77"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21">
-      <c r="A21" s="88">
+      <c r="A21" s="129">
         <v>17.0</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="77"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22">
-      <c r="A22" s="88">
+      <c r="A22" s="129">
         <v>18.0</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="77"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/account/test case/テストケース作成.xlsx
+++ b/account/test case/テストケース作成.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="357">
   <si>
     <t>単体テスト</t>
   </si>
@@ -942,148 +942,185 @@
     <t>削除されたアカウントの更新</t>
   </si>
   <si>
+    <t>アカウント一覧→「削除」→削除実行→
+アカウント一覧「更新」→更新実行</t>
+  </si>
+  <si>
+    <t>削除されたアカウントは更新されない</t>
+  </si>
+  <si>
+    <t>削除されたアカウントは操作できない</t>
+  </si>
+  <si>
+    <t>アカウント一覧→「削除」→削除実行→
+アカウント一覧の〈操作〉欄確認</t>
+  </si>
+  <si>
+    <t>削除されたアカウントの〈操作〉欄は、
+「削除済」の表示がされて、それ以上の操作はできない</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新画面での表示</t>
+  </si>
+  <si>
+    <t>アカウント一覧→「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>パスワードは[●]表示、DB登録時はハッシュ化</t>
+  </si>
+  <si>
+    <t>パスワードは「●」表示され、DB登録時はハッシュ化される</t>
+  </si>
+  <si>
+    <t>TOPページから更新画面までの遷移</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント一覧」選択→
+一覧画面にて「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>TOPページから更新画面まで遷移する</t>
+  </si>
+  <si>
+    <t>更新画面から完了画面遷移しTOPページに戻る</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→「更新する」クリック→
+「TOPページ戻る」クリック</t>
+  </si>
+  <si>
+    <t>更新画面から完了画面まで遷移しTOPページに戻れる</t>
+  </si>
+  <si>
+    <t>更新画面で入力した値の入力保持</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力→
+「確認する」クリック→確認画面「前に戻る」クリック</t>
+  </si>
+  <si>
+    <t>更新画面で入力した値が各項目にセットされ編集が可能</t>
+  </si>
+  <si>
+    <t>パスワードのみ入力保持されない
+※恐らく、セキュリティ観点の可能性</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力し更新までする→
+「TOPページ戻る」→[アカウント登録]選択</t>
+  </si>
+  <si>
+    <t>更新されたデータの入力値は次回以降の登録画面では
+削除され初期値に戻っていること</t>
+  </si>
+  <si>
+    <t>更新したデータが、
+「アカウント登録」画面に引き継がれている</t>
+  </si>
+  <si>
+    <t>パスワード変更せず更新する</t>
+  </si>
+  <si>
+    <t>更新画面パスワード項目に変更加えず「確認する」→
+更新確認画面→「更新する」</t>
+  </si>
+  <si>
+    <t>パスワードは「●」表示のまま、更新でき、
+DBでのハッシュ値も変更されない</t>
+  </si>
+  <si>
+    <t>パスワードを変更して更新</t>
+  </si>
+  <si>
+    <t>更新画面パスワード項目に変更加えて「確認する」→
+更新確認画面→「更新する」</t>
+  </si>
+  <si>
+    <t>確認画面では変更したパスワードの文字数分「●」表示され、
+DBでのハッシュ値は変更し格納される</t>
+  </si>
+  <si>
+    <t>更新画面で必須項目入力→
+「確認する」クリック→「更新する」クリック</t>
+  </si>
+  <si>
+    <t>アカウント一覧での「更新日時」の表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新ボタン押下→情報を編集し更新→
+アカウント一覧確認  </t>
+  </si>
+  <si>
+    <t>更新日時に年月日のみ表示される</t>
+  </si>
+  <si>
+    <t>時間も反映されてしまっている</t>
+  </si>
+  <si>
+    <t>DBでの「更新日時」の表示</t>
+  </si>
+  <si>
+    <t>更新ボタン押下→情報を編集し更新→DBを確認</t>
+  </si>
+  <si>
+    <t>更新日時のみ更新された日時が表示される</t>
+  </si>
+  <si>
+    <t>更新後、登録日時が「NULL」になってしまう
+登録日時まで更新されている状態</t>
+  </si>
+  <si>
+    <t>更新した情報での表示</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」→「更新する」→
+アカウント一覧「更新」ボタンクリック</t>
+  </si>
+  <si>
+    <t>更新された情報での表示がされる</t>
+  </si>
+  <si>
+    <t>アカウント権限のみ
+権限を変更しても一律「一般」で表示される</t>
+  </si>
+  <si>
+    <t>「更新する」ボタン  (更新処理の仕様)</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→
+更新確認画面「更新する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの情報を更新され、
+更新完了メッセージが表示される</t>
+  </si>
+  <si>
+    <t>「更新する」ボタン  (更新処理の仕様)  エラー時</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」クリック→
+更新確認画面「更新する」ボタンクリック</t>
+  </si>
+  <si>
+    <t>該当アカウントの更新はされず、
+エラーメッセージが赤字で表示される</t>
+  </si>
+  <si>
+    <t>２回目以降の「更新」実行</t>
+  </si>
+  <si>
+    <t>更新画面「確認する」→更新確認画面「更新する」→
+再度同じアカウントを更新実行する</t>
+  </si>
+  <si>
+    <t>上書きされて更新できる</t>
+  </si>
+  <si>
     <t>アカウント一覧→「削除」ボタン→削除実行→
 アカウント一覧「更新」ボタン→更新実行</t>
-  </si>
-  <si>
-    <t>削除されたアカウントは更新されない</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>更新画面での表示</t>
-  </si>
-  <si>
-    <t>アカウント一覧→「更新」ボタンクリック</t>
-  </si>
-  <si>
-    <t>パスワードは[●]表示、DB登録時はハッシュ化</t>
-  </si>
-  <si>
-    <t>パスワードは「●」表示され、DB登録時はハッシュ化される</t>
-  </si>
-  <si>
-    <t>TOPページから更新画面までの遷移</t>
-  </si>
-  <si>
-    <t>TOPページ「アカウント一覧」選択→
-一覧画面にて「更新」ボタンクリック</t>
-  </si>
-  <si>
-    <t>TOPページから更新画面まで遷移する</t>
-  </si>
-  <si>
-    <t>更新画面から完了画面遷移しTOPページに戻る</t>
-  </si>
-  <si>
-    <t>更新画面「確認する」クリック→「更新する」クリック→
-「TOPページ戻る」クリック</t>
-  </si>
-  <si>
-    <t>更新画面から完了画面まで遷移しTOPページに戻れる</t>
-  </si>
-  <si>
-    <t>更新画面で入力した値の入力保持</t>
-  </si>
-  <si>
-    <t>更新画面で必須項目入力→
-「確認する」クリック→確認画面「前に戻る」クリック</t>
-  </si>
-  <si>
-    <t>更新画面で入力した値が各項目にセットされ編集が可能</t>
-  </si>
-  <si>
-    <t>パスワードのみ入力保持されない
-※恐らく、セキュリティ観点の可能性</t>
-  </si>
-  <si>
-    <t>更新画面で必須項目入力し更新までする→
-「TOPページ戻る」→[アカウント登録]選択</t>
-  </si>
-  <si>
-    <t>更新されたデータの入力値は次回以降の登録画面では
-削除され初期値に戻っていること</t>
-  </si>
-  <si>
-    <t>更新したデータが、
-「アカウント登録」画面に引き継がれている</t>
-  </si>
-  <si>
-    <t>更新画面で必須項目入力→
-「確認する」クリック→「更新する」クリック</t>
-  </si>
-  <si>
-    <t>アカウント一覧での「更新日時」の表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新ボタン押下→情報を編集し更新→
-アカウント一覧確認  </t>
-  </si>
-  <si>
-    <t>更新日時に年月日のみ表示される</t>
-  </si>
-  <si>
-    <t>時間も反映されてしまっている</t>
-  </si>
-  <si>
-    <t>DBでの「更新日時」の表示</t>
-  </si>
-  <si>
-    <t>更新ボタン押下→情報を編集し更新→DBを確認</t>
-  </si>
-  <si>
-    <t>更新日時のみ更新された日時が表示される</t>
-  </si>
-  <si>
-    <t>更新後、登録日時が「NULL」になってしまう
-登録日時まで更新されている状態</t>
-  </si>
-  <si>
-    <t>更新した情報での表示</t>
-  </si>
-  <si>
-    <t>更新画面「確認する」→「更新する」→
-アカウント一覧「更新」ボタンクリック</t>
-  </si>
-  <si>
-    <t>更新された情報での表示がされる</t>
-  </si>
-  <si>
-    <t>アカウント権限のみ
-権限を変更しても一律「一般」で表示される</t>
-  </si>
-  <si>
-    <t>「更新する」ボタン  (更新処理の仕様)</t>
-  </si>
-  <si>
-    <t>更新画面「確認する」クリック→
-更新確認画面「更新する」ボタンクリック</t>
-  </si>
-  <si>
-    <t>該当アカウントの情報を更新され、
-更新完了メッセージが表示される</t>
-  </si>
-  <si>
-    <t>「更新する」ボタン  (更新処理の仕様)  エラー時</t>
-  </si>
-  <si>
-    <t>更新画面「確認する」クリック→
-更新確認画面「更新する」ボタンクリック</t>
-  </si>
-  <si>
-    <t>該当アカウントの更新はされず、
-エラーメッセージが赤字で表示される</t>
-  </si>
-  <si>
-    <t>２回目以降の「更新」実行</t>
-  </si>
-  <si>
-    <t>更新画面「確認する」→更新確認画面「更新する」→
-再度同じアカウントを更新実行する</t>
-  </si>
-  <si>
-    <t>上書きされて更新できる</t>
   </si>
   <si>
     <t>削除されたアカウントは更新できない</t>
@@ -1292,7 +1329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1613,16 +1650,25 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5186,39 +5232,39 @@
       <c r="G36" s="85"/>
       <c r="H36" s="96"/>
     </row>
-    <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="103" t="s">
+    <row r="37" ht="30.0" customHeight="1">
+      <c r="A37" s="77">
+        <v>9.0</v>
+      </c>
+      <c r="B37" s="57">
+        <v>45233.0</v>
+      </c>
+      <c r="C37" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="50"/>
-    </row>
-    <row r="38" ht="30.0" customHeight="1">
-      <c r="A38" s="77">
-        <v>9.0</v>
-      </c>
-      <c r="B38" s="57">
-        <v>45230.0</v>
-      </c>
-      <c r="C38" s="104" t="s">
+      <c r="D37" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="E37" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="104"/>
+      <c r="F37" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="85"/>
+      <c r="H37" s="96"/>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="77">
@@ -5227,20 +5273,20 @@
       <c r="B39" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C39" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="91" t="s">
-        <v>234</v>
+      <c r="C39" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" s="104" t="s">
+        <v>305</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="F39" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="101"/>
+        <v>277</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="104"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="77">
@@ -5249,20 +5295,20 @@
       <c r="B40" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C40" s="105" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="106" t="s">
+      <c r="C40" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="D40" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="F40" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="107"/>
+      <c r="F40" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="101"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="77">
@@ -5271,13 +5317,13 @@
       <c r="B41" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="E41" s="96" t="s">
+      <c r="E41" s="106" t="s">
         <v>310</v>
       </c>
       <c r="F41" s="81" t="s">
@@ -5293,22 +5339,20 @@
       <c r="B42" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="109" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="96" t="s">
         <v>313</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="G42" s="50"/>
-      <c r="H42" s="104" t="s">
-        <v>314</v>
-      </c>
+      <c r="H42" s="107"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="77">
@@ -5318,7 +5362,7 @@
         <v>45230.0</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>315</v>
@@ -5326,11 +5370,11 @@
       <c r="E43" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F43" s="110" t="s">
+      <c r="F43" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="113" t="s">
+      <c r="G43" s="50"/>
+      <c r="H43" s="104" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5342,206 +5386,286 @@
         <v>45230.0</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>318</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="107"/>
+        <v>319</v>
+      </c>
+      <c r="F44" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="113" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="77">
         <v>16.0</v>
       </c>
       <c r="B45" s="57">
-        <v>45230.0</v>
+        <v>45233.0</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>318</v>
+        <v>321</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="101"/>
+        <v>323</v>
+      </c>
+      <c r="F45" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="107"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="77">
         <v>17.0</v>
       </c>
-      <c r="B46" s="57">
-        <v>45230.0</v>
+      <c r="B46" s="116">
+        <v>45233.0</v>
       </c>
       <c r="C46" s="113" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D46" s="113" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E46" s="113" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="104" t="s">
-        <v>322</v>
-      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="101"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="77">
         <v>18.0</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="100">
         <v>45230.0</v>
       </c>
-      <c r="C47" s="114" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="113" t="s">
-        <v>324</v>
-      </c>
-      <c r="E47" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47" s="102" t="s">
-        <v>121</v>
+      <c r="C47" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="117" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="101" t="s">
-        <v>326</v>
-      </c>
+      <c r="H47" s="106"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="77">
         <v>19.0</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="118">
         <v>45230.0</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="D48" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="F48" s="81" t="s">
-        <v>121</v>
+      <c r="E48" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="50"/>
-      <c r="H48" s="104" t="s">
-        <v>330</v>
-      </c>
+      <c r="H48" s="96"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="77">
         <v>20.0</v>
       </c>
-      <c r="B49" s="100">
+      <c r="B49" s="118">
         <v>45230.0</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="50"/>
+      <c r="H49" s="80" t="s">
         <v>331</v>
       </c>
-      <c r="D49" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="E49" s="106" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="107"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="77">
         <v>21.0</v>
       </c>
-      <c r="B50" s="117">
+      <c r="B50" s="118">
         <v>45230.0</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="F50" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="E50" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="50"/>
-      <c r="H50" s="107"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="77">
         <v>22.0</v>
       </c>
-      <c r="B51" s="57">
+      <c r="B51" s="118">
         <v>45230.0</v>
       </c>
-      <c r="C51" s="112" t="s">
+      <c r="C51" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="E51" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="F51" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="107"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="25">
+      <c r="A52" s="77">
         <v>23.0</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="118">
         <v>45230.0</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="96"/>
+    </row>
+    <row r="53" ht="30.0" customHeight="1">
+      <c r="A53" s="77">
+        <v>24.0</v>
+      </c>
+      <c r="B53" s="118">
+        <v>45230.0</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="80"/>
+    </row>
+    <row r="54" ht="30.0" customHeight="1">
+      <c r="A54" s="77">
+        <v>25.0</v>
+      </c>
+      <c r="B54" s="118">
+        <v>45230.0</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="96"/>
+    </row>
+    <row r="55" ht="30.0" customHeight="1">
+      <c r="A55" s="77">
+        <v>26.0</v>
+      </c>
+      <c r="B55" s="118">
+        <v>45230.0</v>
+      </c>
+      <c r="C55" s="80" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="F52" s="25" t="s">
+      <c r="D55" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="F55" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="26" t="s">
-        <v>341</v>
-      </c>
+      <c r="G55" s="96"/>
+      <c r="H55" s="80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" ht="30.0" customHeight="1">
+      <c r="A56" s="77">
+        <v>27.0</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -5575,21 +5699,23 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5622,39 +5748,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="119"/>
-      <c r="C1" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" s="121" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="122" t="s">
+      <c r="A1" s="122"/>
+      <c r="C1" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="124" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="124" t="s">
-        <v>345</v>
-      </c>
-      <c r="E2" s="125" t="s">
+      <c r="C2" s="127" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5665,31 +5791,31 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="F4" s="131" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="130" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129">
+      <c r="A5" s="132">
         <v>1.0</v>
       </c>
       <c r="B5" s="22"/>
@@ -5703,7 +5829,7 @@
       <c r="H5" s="96"/>
     </row>
     <row r="6">
-      <c r="A6" s="129">
+      <c r="A6" s="132">
         <v>2.0</v>
       </c>
       <c r="B6" s="22"/>
@@ -5715,7 +5841,7 @@
       <c r="H6" s="98"/>
     </row>
     <row r="7">
-      <c r="A7" s="129">
+      <c r="A7" s="132">
         <v>3.0</v>
       </c>
       <c r="B7" s="22"/>
@@ -5727,184 +5853,184 @@
       <c r="H7" s="96"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="129">
+      <c r="A8" s="132">
         <v>4.0</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="132"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="50"/>
       <c r="H8" s="96"/>
     </row>
     <row r="9">
-      <c r="A9" s="129">
+      <c r="A9" s="132">
         <v>5.0</v>
       </c>
-      <c r="B9" s="130"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="31" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="132"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="50"/>
       <c r="H9" s="96"/>
     </row>
     <row r="10">
-      <c r="A10" s="129">
+      <c r="A10" s="132">
         <v>6.0</v>
       </c>
-      <c r="B10" s="130"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="132"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="50"/>
       <c r="H10" s="96"/>
     </row>
     <row r="11">
-      <c r="A11" s="129">
+      <c r="A11" s="132">
         <v>7.0</v>
       </c>
-      <c r="B11" s="130"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="132"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="50"/>
       <c r="H11" s="96"/>
     </row>
     <row r="12">
-      <c r="A12" s="129">
+      <c r="A12" s="132">
         <v>8.0</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="132"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="50"/>
       <c r="H12" s="96"/>
     </row>
     <row r="13">
-      <c r="A13" s="129">
+      <c r="A13" s="132">
         <v>9.0</v>
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="132"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="50"/>
       <c r="H13" s="96"/>
     </row>
     <row r="14">
-      <c r="A14" s="129">
+      <c r="A14" s="132">
         <v>10.0</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="132"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="50"/>
       <c r="H14" s="96"/>
     </row>
     <row r="15">
-      <c r="A15" s="129">
+      <c r="A15" s="132">
         <v>11.0</v>
       </c>
       <c r="B15" s="96"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="50"/>
       <c r="H15" s="96"/>
     </row>
     <row r="16">
-      <c r="A16" s="129">
+      <c r="A16" s="132">
         <v>12.0</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="132"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="50"/>
       <c r="H16" s="96"/>
     </row>
     <row r="17">
-      <c r="A17" s="129">
+      <c r="A17" s="132">
         <v>13.0</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="132"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="50"/>
       <c r="H17" s="96"/>
     </row>
     <row r="18">
-      <c r="A18" s="129">
+      <c r="A18" s="132">
         <v>14.0</v>
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="132"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="50"/>
       <c r="H18" s="96"/>
     </row>
     <row r="19">
-      <c r="A19" s="129">
+      <c r="A19" s="132">
         <v>15.0</v>
       </c>
       <c r="B19" s="96"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="132"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="50"/>
       <c r="H19" s="96"/>
     </row>
     <row r="20">
-      <c r="A20" s="129">
+      <c r="A20" s="132">
         <v>16.0</v>
       </c>
       <c r="B20" s="96"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="132"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="50"/>
       <c r="H20" s="96"/>
     </row>
     <row r="21">
-      <c r="A21" s="129">
+      <c r="A21" s="132">
         <v>17.0</v>
       </c>
       <c r="B21" s="96"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="132"/>
+      <c r="F21" s="135"/>
       <c r="G21" s="50"/>
       <c r="H21" s="96"/>
     </row>
     <row r="22">
-      <c r="A22" s="129">
+      <c r="A22" s="132">
         <v>18.0</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="132"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="50"/>
       <c r="H22" s="96"/>
     </row>

--- a/account/test case/テストケース作成.xlsx
+++ b/account/test case/テストケース作成.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="503">
   <si>
     <t>単体テスト</t>
   </si>
@@ -685,6 +685,177 @@
     <t>該当アカウントの情報は更新はしない</t>
   </si>
   <si>
+    <t>４、ログイン・アカウント検索</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>アドレス・パスワード入力して「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>D.IブログのTOPページにログインできる</t>
+  </si>
+  <si>
+    <t>未入力でのログイン</t>
+  </si>
+  <si>
+    <t>片方のみ未入力のまま「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>画面遷移せず入力を促す</t>
+  </si>
+  <si>
+    <t>未入力でのログイン 2</t>
+  </si>
+  <si>
+    <t>両方未入力のまま「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>『一般』でのログイン</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクが非表示</t>
+  </si>
+  <si>
+    <t>『管理者』でのログイン</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクは表示</t>
+  </si>
+  <si>
+    <t>『管理者』でのログイン (操作時)</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」のリンク</t>
+  </si>
+  <si>
+    <t>確認や各操作が可能</t>
+  </si>
+  <si>
+    <t>DBのアカウント情報をチェック</t>
+  </si>
+  <si>
+    <t>正しい情報を入力し「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>ログイン可能</t>
+  </si>
+  <si>
+    <t>DBのアカウント情報をチェック (エラー時)</t>
+  </si>
+  <si>
+    <t>異なる情報を入力し「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>情報がないこと（違うことを）メッセージ表示させる</t>
+  </si>
+  <si>
+    <t>DBから取得時のエラー</t>
+  </si>
+  <si>
+    <t>エラーメッセージを赤字で表示</t>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+  </si>
+  <si>
+    <t>「名前（姓）（名）」の初期値</t>
+  </si>
+  <si>
+    <t>「名前」項目</t>
+  </si>
+  <si>
+    <t>名前のテキストボックスは空欄</t>
+  </si>
+  <si>
+    <t>「カナ（姓）（名）」の初期値</t>
+  </si>
+  <si>
+    <t>「カナ」項目</t>
+  </si>
+  <si>
+    <t>カナのテキストボックスは空欄</t>
+  </si>
+  <si>
+    <t>「メールアドレス」の初期値</t>
+  </si>
+  <si>
+    <t>「メールアドレス」項目</t>
+  </si>
+  <si>
+    <t>メールアドレスのテキストボックスは空欄</t>
+  </si>
+  <si>
+    <t>「性別」の初期値</t>
+  </si>
+  <si>
+    <t>「性別」項目</t>
+  </si>
+  <si>
+    <t>ラジオボタンは〈男〉を選択</t>
+  </si>
+  <si>
+    <t>「アカウント権限」の初期値</t>
+  </si>
+  <si>
+    <t>「アカウント権限」項目</t>
+  </si>
+  <si>
+    <t>プルダウンは〈一般〉を選択</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面の初期表示</t>
+  </si>
+  <si>
+    <t>アカウント情報は非表示</t>
+  </si>
+  <si>
+    <t>【検索】ボタン</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面にアクセスし「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面に留まる</t>
+  </si>
+  <si>
+    <t>検索条件を入力して「検索」</t>
+  </si>
+  <si>
+    <t>名前（姓）に「山」入力した状態で「検索」押下</t>
+  </si>
+  <si>
+    <t>「山」を含む全データが表示される</t>
+  </si>
+  <si>
+    <t>検索条件を未入力で「検索」</t>
+  </si>
+  <si>
+    <t>検索条件を未入力にした状態で「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>全件のデータが取得される</t>
+  </si>
+  <si>
+    <t>検索条件を複数入力して「検索」</t>
+  </si>
+  <si>
+    <t>検索条件に複数入力した状態で「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>AND条件（絞り込んだ）でデータが表示される</t>
+  </si>
+  <si>
+    <t>検索時データがない場合の表示</t>
+  </si>
+  <si>
+    <t>存在しない値を入力した状態で「検索」押下</t>
+  </si>
+  <si>
+    <t>「データはありません」表示がされる</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
@@ -1129,19 +1300,337 @@
     <t>総合テストに近い</t>
   </si>
   <si>
-    <t>システム名：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作成者： </t>
-  </si>
-  <si>
-    <t>環境：</t>
-  </si>
-  <si>
-    <t>作成日：</t>
+    <t>アドレス・パスワード入力→「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクが非表示
+それ以上の操作はできない</t>
+  </si>
+  <si>
+    <t>『一般』でのログイン２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者URLで侵入できても、
+「アカウント登録」「アカウント一覧」の操作は不可 </t>
+  </si>
+  <si>
+    <t>アドレス・パスワード入力→「ログイン」クリック→
+「アカウント登録」「アカウント一覧」クリック</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクは表示
+リンクのクリックが可能</t>
+  </si>
+  <si>
+    <t>『管理者』でのログイン２</t>
+  </si>
+  <si>
+    <t>TOPページ「アカウント登録」「アカウント一覧」→
+クリックして初期画面が表示される</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」ページの表示がされる</t>
+  </si>
+  <si>
+    <t>ログインエラー時と成功時</t>
+  </si>
+  <si>
+    <t>1回目＝異なる情報で「ログイン」クリック
+2回目＝正しい情報で「ログイン」クリック</t>
+  </si>
+  <si>
+    <t>1回目＝エラーメッセージ
+2回目＝ログインができる</t>
+  </si>
+  <si>
+    <t>ログインエラーした後、ログイン成功し再度
+ログインページに戻った時の表示</t>
+  </si>
+  <si>
+    <t>異なる情報で「ログイン」→正しい情報で「ログイン」→
+再度ログインページに戻る</t>
+  </si>
+  <si>
+    <t>以前のログインエラーメッセージ表示は消えて、
+正しい情報でのログイン情報のみが表示されている</t>
+  </si>
+  <si>
+    <t>エラー表示が常にある状態で、間違っているのかと
+勘違いしそう。</t>
+  </si>
+  <si>
+    <t>検索した際の一覧画面の動き</t>
+  </si>
+  <si>
+    <t>検索条件に入力し「検索」クリック</t>
+  </si>
+  <si>
+    <t>取得したデータの量のみ表示がされる</t>
+  </si>
+  <si>
+    <t>検索したアカウントが3つヒットした場合、
+3行分のデータのみ一覧画面に表示される</t>
+  </si>
+  <si>
+    <t>検索条件に名前（姓）に「山」入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>検索条件を未入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>性別・アカウント権限は「未選択」を選択で未入力状態になる</t>
+  </si>
+  <si>
+    <t>検索条件に複数入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>複数入力した値のデータが取得される
+※AND条件（絞り込み）でデータが表示される</t>
+  </si>
+  <si>
+    <t>複数アカウント情報が表示された場合、降順表示</t>
+  </si>
+  <si>
+    <t>検索条件に複数存在する値を入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>表示されたアカウント情報はIDの [降順] 表示</t>
+  </si>
+  <si>
+    <t>検索条件の入力保持</t>
+  </si>
+  <si>
+    <t>検索条件に入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>検索条件に入力した値が保持され、
+現在絞っている条件がわかる</t>
+  </si>
+  <si>
+    <t>検索時データがない場合の挙動</t>
+  </si>
+  <si>
+    <t>存在しない値を入力→「検索」ボタン押下</t>
+  </si>
+  <si>
+    <t>データは何も取得されず「データはありません」表示がされる</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面の検索機能とその他の画面要素</t>
+  </si>
+  <si>
+    <t>検索結果と同時に他の画面要素も正しく表示される</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面の検索機能と他の機能や操作</t>
+  </si>
+  <si>
+    <t>検索条件に入力→「検索」ボタン押下→
+取得されたアカウント情報の「更新・削除」の実施</t>
+  </si>
+  <si>
+    <t>検索機能と他の機能が統合され、操作の実施ができる</t>
+  </si>
+  <si>
+    <t>総合テスト</t>
+  </si>
+  <si>
+    <t>作成者： 山本風樹</t>
+  </si>
+  <si>
+    <t>作成日：2023/11/11</t>
   </si>
   <si>
     <t xml:space="preserve">　</t>
+  </si>
+  <si>
+    <t>アカウント登録した情報の確認</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+アカウント一覧画面→登録したアカウント情報を検索</t>
+  </si>
+  <si>
+    <t>アカウント登録した情報は、アカウント一覧画面で検索すると
+表示されて、登録できていることが確認できる</t>
+  </si>
+  <si>
+    <t>アカウント登録後のログイン</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+ログイン画面にて登録した情報でログイン</t>
+  </si>
+  <si>
+    <t>アカウント登録した情報でログインできる</t>
+  </si>
+  <si>
+    <t>次回以降の「アカウント登録」へのアクセス</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+「TOPページ戻る」→TOPページ→「アカウント登録」クリック</t>
+  </si>
+  <si>
+    <t>一度登録されたデータの入力値は、
+次回以降の登録画面では保持されず初期値での表示</t>
+  </si>
+  <si>
+    <t>「一般権限」でのログイン</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→〈一般権限〉で登録→
+ログイン画面アクセス→一般権限で登録した情報でログイン</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクは非表示
+また、ページでの操作は不可</t>
+  </si>
+  <si>
+    <t>「一般権限」でのログイン(URLでの侵入)１</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→〈一般権限〉で登録→
+ログイン画面アクセス→一般権限で登録した情報でログイン→
+管理者URLで侵入</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」操作不可
+※ページが表示されずエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>「一般権限」でのログイン(URLでの侵入)２</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→〈一般権限〉で登録→
+ログイン画面アクセス→一般権限で登録した情報でログイン→
+「更新・削除」ページのURLに侵入</t>
+  </si>
+  <si>
+    <t>アカウント一覧「更新・削除」操作不可
+※ページが表示されずエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>「管理者権限」でのログイン</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→〈管理者権限〉で登録→
+ログイン画面アクセス→管理者権限で登録した情報でログイン</t>
+  </si>
+  <si>
+    <t>「アカウント登録」「アカウント一覧」リンクは表示
+ページでの操作は可能</t>
+  </si>
+  <si>
+    <t>「管理者権限」でのログイン (セッション)１</t>
+  </si>
+  <si>
+    <t>管理者権限でログイン→
+「アカウント登録・一覧」画面に遷移し続ける</t>
+  </si>
+  <si>
+    <t>ログインしたアカウント権限での情報で、
+セッションが引き継がれて、画面遷移できる</t>
+  </si>
+  <si>
+    <t>途中で途切れる(ログアウト状態？)</t>
+  </si>
+  <si>
+    <t>「管理者権限」でのログイン (セッション)２</t>
+  </si>
+  <si>
+    <t>管理者権限でログイン→
+「アカウント一覧」→アカウントを更新する</t>
+  </si>
+  <si>
+    <t>ログインしたアカウント権限での情報で、
+セッションが引き継がれて、更新操作ができる</t>
+  </si>
+  <si>
+    <t>更新画面遷移すると、切れる
+※一般での更</t>
+  </si>
+  <si>
+    <t>「管理者権限」でのログイン (セッション)３</t>
+  </si>
+  <si>
+    <t>管理者権限でログイン→
+「アカウント一覧」→アカウントを削除する</t>
+  </si>
+  <si>
+    <t>ログインしたアカウント権限での情報で、
+セッションが引き継がれて、削除操作ができる</t>
+  </si>
+  <si>
+    <t>「管理者権限」画面からアカウント登録する際</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者権限でログイン→「アカウント登録」画面
+</t>
+  </si>
+  <si>
+    <t>アカウント登録画面の初期値や、
+問題なく新規でアカウント登録まで行えること</t>
+  </si>
+  <si>
+    <t>管理者での情報 (アカウント権限：管理者)が、
+初期値として表示されてしまっている</t>
+  </si>
+  <si>
+    <t>アカウント登録後の更新</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+アカウント一覧画面アクセス→登録した情報を更新する</t>
+  </si>
+  <si>
+    <t>アカウント登録した情報を更新できて、アカウント一覧画面で
+検索すると、更新できていることが確認できる</t>
+  </si>
+  <si>
+    <t>アカウント登録後の削除</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+アカウント一覧画面アクセス→登録した情報を削除する</t>
+  </si>
+  <si>
+    <t>・アカウント登録した情報を削除できて、アカウント一覧画面で
+　検索すると、削除できていることが確認できる
+・削除フラグが無効になり、操作は「削除済」と表示される</t>
+  </si>
+  <si>
+    <t>更新したアカウント情報でログイン</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→〈管理者〉で登録→
+アカウント一覧画面アクセス→「一般権限」に更新→
+更新した情報でログイン</t>
+  </si>
+  <si>
+    <t>・「アカウント登録」「アカウント一覧」リンクは非表示
+・「アカウント登録」「アカウント一覧」「更新」「削除」
+　ページで操作不可（エラー表示）</t>
+  </si>
+  <si>
+    <t>削除したアカウント情報でログイン</t>
+  </si>
+  <si>
+    <t>TOPページ→「アカウント登録」→登録まで行う→
+アカウント一覧画面アクセス→登録した情報を削除→
+削除した情報でログイン</t>
+  </si>
+  <si>
+    <t>ログインできない (エラーメッセージが表示)</t>
+  </si>
+  <si>
+    <t>ログインしていない場合の操作</t>
+  </si>
+  <si>
+    <t>ログインせず、直接「index.php」のTOPページへアクセス</t>
+  </si>
+  <si>
+    <t>操作できず、「ログイン画面」に遷移される</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1568,6 +2057,26 @@
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1623,98 +2132,125 @@
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1947,7 +2483,7 @@
     <col customWidth="1" min="1" max="1" width="7.5"/>
     <col customWidth="1" min="2" max="2" width="13.75"/>
     <col customWidth="1" min="3" max="3" width="37.63"/>
-    <col customWidth="1" min="4" max="4" width="41.13"/>
+    <col customWidth="1" min="4" max="4" width="42.38"/>
     <col customWidth="1" min="5" max="5" width="48.63"/>
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="7" max="7" width="0.38"/>
@@ -4383,67 +4919,647 @@
       <c r="G121" s="50"/>
       <c r="H121" s="63"/>
     </row>
+    <row r="122" ht="42.0" customHeight="1">
+      <c r="A122" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="50"/>
+    </row>
+    <row r="123" ht="21.0" customHeight="1">
+      <c r="A123" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="50"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="62">
+        <v>1.0</v>
+      </c>
+      <c r="B124" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="50"/>
+      <c r="H124" s="63"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="62">
+        <v>2.0</v>
+      </c>
+      <c r="B125" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="50"/>
+      <c r="H125" s="63"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="B126" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="50"/>
+      <c r="H126" s="63"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="62">
+        <v>4.0</v>
+      </c>
+      <c r="B127" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="50"/>
+      <c r="H127" s="63"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="62">
+        <v>5.0</v>
+      </c>
+      <c r="B128" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F128" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="50"/>
+      <c r="H128" s="63"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="B129" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F129" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="50"/>
+      <c r="H129" s="63"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="62">
+        <v>7.0</v>
+      </c>
+      <c r="B130" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F130" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" s="50"/>
+      <c r="H130" s="63"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="B131" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C131" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="D131" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="F131" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="50"/>
+      <c r="H131" s="63"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="B132" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C132" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F132" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="50"/>
+      <c r="H132" s="63"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="B133" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="50"/>
+      <c r="H133" s="63"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="B134" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C134" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="F134" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="50"/>
+      <c r="H134" s="63"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="62">
+        <v>12.0</v>
+      </c>
+      <c r="B135" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" s="50"/>
+      <c r="H135" s="63"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="62">
+        <v>13.0</v>
+      </c>
+      <c r="B136" s="66">
+        <v>45242.0</v>
+      </c>
+      <c r="C136" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D136" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="50"/>
+      <c r="H136" s="63"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="62">
+        <v>14.0</v>
+      </c>
+      <c r="B137" s="57"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="63"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="62">
+        <v>15.0</v>
+      </c>
+      <c r="B138" s="57"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="63"/>
+    </row>
+    <row r="139" ht="28.5" customHeight="1">
+      <c r="A139" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="50"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="62">
+        <v>1.0</v>
+      </c>
+      <c r="B140" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F140" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="50"/>
+      <c r="H140" s="63"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="62">
+        <v>2.0</v>
+      </c>
+      <c r="B141" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F141" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="50"/>
+      <c r="H141" s="63"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="B142" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="50"/>
+      <c r="H142" s="63"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="62">
+        <v>4.0</v>
+      </c>
+      <c r="B143" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F143" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="50"/>
+      <c r="H143" s="63"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="62">
+        <v>5.0</v>
+      </c>
+      <c r="B144" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F144" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="50"/>
+      <c r="H144" s="63"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="B145" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F145" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="50"/>
+      <c r="H145" s="63"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="62">
+        <v>7.0</v>
+      </c>
+      <c r="B146" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F146" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="50"/>
+      <c r="H146" s="41"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="62">
+        <v>8.0</v>
+      </c>
+      <c r="B147" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="50"/>
+      <c r="H147" s="39"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="B148" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C148" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D148" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E148" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="F148" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" s="50"/>
+      <c r="H148" s="72"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="62">
+        <v>10.0</v>
+      </c>
+      <c r="B149" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="D149" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="E149" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="50"/>
+      <c r="H149" s="72"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="B150" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C150" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="D150" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="E150" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="F150" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="50"/>
+      <c r="H150" s="63"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="62">
+        <v>12.0</v>
+      </c>
+      <c r="B151" s="85"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="82"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="63"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="62">
+        <v>13.0</v>
+      </c>
+      <c r="B152" s="85"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="50"/>
+      <c r="H152" s="63"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="62">
+        <v>14.0</v>
+      </c>
+      <c r="B153" s="85"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="63"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="62">
+        <v>15.0</v>
+      </c>
+      <c r="B154" s="85"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="63"/>
+    </row>
+    <row r="1025">
+      <c r="B1025" s="93"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
+  <mergeCells count="134">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -4487,6 +5603,97 @@
     <mergeCell ref="A59:H59"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="A139:H139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4516,12 +5723,12 @@
     <col customWidth="1" min="5" max="5" width="48.25"/>
     <col customWidth="1" min="6" max="6" width="7.0"/>
     <col customWidth="1" min="7" max="7" width="0.38"/>
-    <col customWidth="1" min="8" max="8" width="42.75"/>
+    <col customWidth="1" min="8" max="8" width="47.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -4542,7 +5749,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -4575,7 +5782,7 @@
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="94" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="13"/>
@@ -4594,20 +5801,20 @@
         <v>45215.0</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="26" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" ht="30.75" customHeight="1">
@@ -4618,20 +5825,20 @@
         <v>45215.0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>230</v>
+        <v>286</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>287</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="89" t="s">
-        <v>232</v>
+      <c r="H7" s="97" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4641,16 +5848,16 @@
       <c r="B8" s="22">
         <v>45215.0</v>
       </c>
-      <c r="C8" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="87" t="s">
+      <c r="C8" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="11"/>
@@ -4664,15 +5871,15 @@
         <v>45215.0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="11"/>
@@ -4686,20 +5893,20 @@
         <v>45215.0</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="26" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
@@ -4713,12 +5920,12 @@
         <v>92</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="11"/>
@@ -4735,12 +5942,12 @@
         <v>95</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="11"/>
@@ -4753,16 +5960,16 @@
       <c r="B13" s="22">
         <v>45215.0</v>
       </c>
-      <c r="C13" s="93" t="s">
-        <v>243</v>
+      <c r="C13" s="101" t="s">
+        <v>300</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="11"/>
@@ -4775,14 +5982,14 @@
       <c r="B14" s="22">
         <v>45220.0</v>
       </c>
-      <c r="C14" s="93" t="s">
-        <v>245</v>
+      <c r="C14" s="101" t="s">
+        <v>302</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>19</v>
@@ -4791,7 +5998,7 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" ht="39.0" customHeight="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="94" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="13"/>
@@ -4815,26 +6022,26 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="94">
+      <c r="A17" s="102">
         <v>1.0</v>
       </c>
       <c r="B17" s="58">
         <v>45220.0</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="50"/>
-      <c r="H17" s="96"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
@@ -4849,184 +6056,184 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="94">
+      <c r="A19" s="102">
         <v>2.0</v>
       </c>
       <c r="B19" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C19" s="96" t="s">
-        <v>251</v>
+      <c r="C19" s="104" t="s">
+        <v>308</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="98"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="102">
         <v>3.0</v>
       </c>
       <c r="B20" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C20" s="96" t="s">
-        <v>254</v>
+      <c r="C20" s="104" t="s">
+        <v>311</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="96"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="94">
+      <c r="A21" s="102">
         <v>4.0</v>
       </c>
       <c r="B21" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C21" s="96" t="s">
-        <v>256</v>
+      <c r="C21" s="104" t="s">
+        <v>313</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="107" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="50"/>
-      <c r="H21" s="96"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" ht="30.0" customHeight="1">
-      <c r="A22" s="94">
+      <c r="A22" s="102">
         <v>5.0</v>
       </c>
       <c r="B22" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C22" s="96" t="s">
-        <v>259</v>
+      <c r="C22" s="104" t="s">
+        <v>316</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="97" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="105" t="s">
         <v>121</v>
       </c>
       <c r="G22" s="50"/>
-      <c r="H22" s="96" t="s">
-        <v>261</v>
+      <c r="H22" s="104" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
-      <c r="A23" s="94">
+      <c r="A23" s="102">
         <v>6.0</v>
       </c>
       <c r="B23" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C23" s="96" t="s">
-        <v>262</v>
+      <c r="C23" s="104" t="s">
+        <v>319</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="F23" s="97" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="105" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="H23" s="96" t="s">
-        <v>264</v>
+      <c r="H23" s="104" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
-      <c r="A24" s="94">
+      <c r="A24" s="102">
         <v>7.0</v>
       </c>
       <c r="B24" s="57">
         <v>45221.0</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>265</v>
+      <c r="C24" s="104" t="s">
+        <v>322</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="96"/>
+      <c r="H24" s="104"/>
     </row>
     <row r="25" ht="30.0" customHeight="1">
-      <c r="A25" s="94">
+      <c r="A25" s="102">
         <v>8.0</v>
       </c>
       <c r="B25" s="57">
         <v>45222.0</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="95" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="96"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="46">
         <v>9.0</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="108">
         <v>45222.0</v>
       </c>
-      <c r="C26" s="101" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" s="102" t="s">
+      <c r="C26" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="110" t="s">
         <v>121</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="96"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
       <c r="A27" s="60" t="s">
@@ -5041,8 +6248,8 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="103" t="s">
-        <v>274</v>
+      <c r="A28" s="111" t="s">
+        <v>331</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5059,21 +6266,21 @@
       <c r="B29" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C29" s="104" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>277</v>
+      <c r="C29" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="112" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>334</v>
       </c>
       <c r="F29" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="50"/>
-      <c r="H29" s="104" t="s">
-        <v>278</v>
+      <c r="H29" s="112" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="30" ht="31.5" customHeight="1">
@@ -5083,20 +6290,20 @@
       <c r="B30" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C30" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="106" t="s">
-        <v>281</v>
+      <c r="C30" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>338</v>
       </c>
       <c r="F30" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="50"/>
-      <c r="H30" s="107"/>
+      <c r="H30" s="113"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="77">
@@ -5106,19 +6313,19 @@
         <v>45230.0</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="108" t="s">
-        <v>283</v>
+        <v>339</v>
+      </c>
+      <c r="D31" s="114" t="s">
+        <v>340</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="F31" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="50"/>
-      <c r="H31" s="107"/>
+      <c r="H31" s="113"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="77">
@@ -5131,16 +6338,16 @@
         <v>170</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="F32" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="50"/>
-      <c r="H32" s="107"/>
+      <c r="H32" s="113"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
       <c r="A33" s="77">
@@ -5150,19 +6357,19 @@
         <v>45230.0</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="F33" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="50"/>
-      <c r="H33" s="107"/>
+      <c r="H33" s="113"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="77">
@@ -5171,20 +6378,20 @@
       <c r="B34" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C34" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="F34" s="110" t="s">
+      <c r="C34" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="116" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="111"/>
+      <c r="H34" s="117"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="77">
@@ -5193,21 +6400,21 @@
       <c r="B35" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C35" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="D35" s="113" t="s">
-        <v>294</v>
-      </c>
-      <c r="E35" s="113" t="s">
-        <v>295</v>
-      </c>
-      <c r="F35" s="110" t="s">
+      <c r="C35" s="118" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" s="116" t="s">
         <v>121</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="H35" s="113" t="s">
-        <v>296</v>
+      <c r="H35" s="91" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
@@ -5218,19 +6425,19 @@
         <v>45230.0</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>121</v>
       </c>
       <c r="G36" s="85"/>
-      <c r="H36" s="96"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="77">
@@ -5239,24 +6446,24 @@
       <c r="B37" s="57">
         <v>45233.0</v>
       </c>
-      <c r="C37" s="114" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="114" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="F37" s="115" t="s">
+      <c r="C37" s="119" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" s="120" t="s">
         <v>121</v>
       </c>
       <c r="G37" s="85"/>
-      <c r="H37" s="96"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="103" t="s">
-        <v>303</v>
+      <c r="A38" s="111" t="s">
+        <v>360</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -5273,20 +6480,20 @@
       <c r="B39" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C39" s="104" t="s">
-        <v>304</v>
-      </c>
-      <c r="D39" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="104" t="s">
-        <v>277</v>
+      <c r="C39" s="112" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>334</v>
       </c>
       <c r="F39" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="50"/>
-      <c r="H39" s="104"/>
+      <c r="H39" s="112"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="77">
@@ -5295,20 +6502,20 @@
       <c r="B40" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C40" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="D40" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="F40" s="110" t="s">
+      <c r="C40" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" s="116" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="11"/>
-      <c r="H40" s="101"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="77">
@@ -5317,20 +6524,20 @@
       <c r="B41" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C41" s="105" t="s">
-        <v>308</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="106" t="s">
-        <v>310</v>
+      <c r="C41" s="90" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>367</v>
       </c>
       <c r="F41" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="50"/>
-      <c r="H41" s="107"/>
+      <c r="H41" s="113"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="77">
@@ -5339,20 +6546,20 @@
       <c r="B42" s="57">
         <v>45230.0</v>
       </c>
-      <c r="C42" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="98" t="s">
-        <v>312</v>
-      </c>
-      <c r="E42" s="96" t="s">
-        <v>313</v>
+      <c r="C42" s="115" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>370</v>
       </c>
       <c r="F42" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="50"/>
-      <c r="H42" s="107"/>
+      <c r="H42" s="113"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="77">
@@ -5362,20 +6569,20 @@
         <v>45230.0</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="F43" s="81" t="s">
         <v>121</v>
       </c>
       <c r="G43" s="50"/>
-      <c r="H43" s="104" t="s">
-        <v>317</v>
+      <c r="H43" s="112" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="44" ht="30.0" customHeight="1">
@@ -5386,20 +6593,20 @@
         <v>45230.0</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="116" t="s">
         <v>121</v>
       </c>
       <c r="G44" s="11"/>
-      <c r="H44" s="113" t="s">
-        <v>320</v>
+      <c r="H44" s="91" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="45" ht="30.0" customHeight="1">
@@ -5410,197 +6617,197 @@
         <v>45233.0</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="F45" s="81" t="s">
         <v>121</v>
       </c>
       <c r="G45" s="50"/>
-      <c r="H45" s="107"/>
+      <c r="H45" s="113"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="77">
         <v>17.0</v>
       </c>
-      <c r="B46" s="116">
+      <c r="B46" s="121">
         <v>45233.0</v>
       </c>
-      <c r="C46" s="113" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="113" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="110" t="s">
+      <c r="C46" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="F46" s="116" t="s">
         <v>121</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" s="101"/>
+      <c r="H46" s="109"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="77">
         <v>18.0</v>
       </c>
-      <c r="B47" s="100">
+      <c r="B47" s="108">
         <v>45230.0</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="106" t="s">
-        <v>327</v>
-      </c>
-      <c r="E47" s="106" t="s">
+      <c r="D47" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="117" t="s">
+      <c r="F47" s="122" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="106"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="77">
         <v>19.0</v>
       </c>
-      <c r="B48" s="118">
+      <c r="B48" s="123">
         <v>45230.0</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="E48" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="97" t="s">
+      <c r="F48" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="50"/>
-      <c r="H48" s="96"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="77">
         <v>20.0</v>
       </c>
-      <c r="B49" s="118">
+      <c r="B49" s="123">
         <v>45230.0</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="E49" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" s="119" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" s="124" t="s">
         <v>121</v>
       </c>
       <c r="G49" s="50"/>
       <c r="H49" s="80" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="77">
         <v>21.0</v>
       </c>
-      <c r="B50" s="118">
+      <c r="B50" s="123">
         <v>45230.0</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="E50" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="F50" s="119" t="s">
+        <v>391</v>
+      </c>
+      <c r="F50" s="124" t="s">
         <v>121</v>
       </c>
       <c r="G50" s="50"/>
-      <c r="H50" s="96" t="s">
-        <v>335</v>
+      <c r="H50" s="104" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="77">
         <v>22.0</v>
       </c>
-      <c r="B51" s="118">
+      <c r="B51" s="123">
         <v>45230.0</v>
       </c>
-      <c r="C51" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="96" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="96" t="s">
-        <v>338</v>
-      </c>
-      <c r="F51" s="97" t="s">
+      <c r="C51" s="104" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>394</v>
+      </c>
+      <c r="E51" s="104" t="s">
+        <v>395</v>
+      </c>
+      <c r="F51" s="105" t="s">
         <v>121</v>
       </c>
       <c r="G51" s="50"/>
-      <c r="H51" s="96" t="s">
-        <v>339</v>
+      <c r="H51" s="104" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="52" ht="30.0" customHeight="1">
       <c r="A52" s="77">
         <v>23.0</v>
       </c>
-      <c r="B52" s="118">
+      <c r="B52" s="123">
         <v>45230.0</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="F52" s="124" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="50"/>
-      <c r="H52" s="96"/>
+      <c r="H52" s="104"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
       <c r="A53" s="77">
         <v>24.0</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="123">
         <v>45230.0</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="F53" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="F53" s="105" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="50"/>
@@ -5610,46 +6817,46 @@
       <c r="A54" s="77">
         <v>25.0</v>
       </c>
-      <c r="B54" s="118">
+      <c r="B54" s="123">
         <v>45230.0</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="F54" s="124" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="50"/>
-      <c r="H54" s="96"/>
+      <c r="H54" s="104"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
       <c r="A55" s="77">
         <v>26.0</v>
       </c>
-      <c r="B55" s="118">
+      <c r="B55" s="123">
         <v>45230.0</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="E55" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="F55" s="120" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="G55" s="96"/>
+      <c r="G55" s="104"/>
       <c r="H55" s="80" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="1">
@@ -5661,11 +6868,455 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="121"/>
+      <c r="G56" s="126"/>
       <c r="H56" s="26"/>
     </row>
+    <row r="57" ht="39.75" customHeight="1">
+      <c r="A57" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="50"/>
+    </row>
+    <row r="58" ht="26.25" customHeight="1">
+      <c r="A58" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="50"/>
+    </row>
+    <row r="59" ht="30.0" customHeight="1">
+      <c r="A59" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="B59" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="126"/>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" ht="30.0" customHeight="1">
+      <c r="A60" s="77">
+        <v>2.0</v>
+      </c>
+      <c r="B60" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="126"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" ht="30.0" customHeight="1">
+      <c r="A61" s="77">
+        <v>3.0</v>
+      </c>
+      <c r="B61" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C61" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="F61" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="109"/>
+      <c r="H61" s="92"/>
+    </row>
+    <row r="62" ht="30.0" customHeight="1">
+      <c r="A62" s="77">
+        <v>4.0</v>
+      </c>
+      <c r="B62" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="104"/>
+      <c r="H62" s="80"/>
+    </row>
+    <row r="63" ht="30.0" customHeight="1">
+      <c r="A63" s="77">
+        <v>5.0</v>
+      </c>
+      <c r="B63" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="F63" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="104"/>
+      <c r="H63" s="80"/>
+    </row>
+    <row r="64" ht="30.0" customHeight="1">
+      <c r="A64" s="77">
+        <v>6.0</v>
+      </c>
+      <c r="B64" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="104"/>
+      <c r="H64" s="80" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" ht="30.0" customHeight="1">
+      <c r="A65" s="77">
+        <v>7.0</v>
+      </c>
+      <c r="B65" s="128"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="119"/>
+    </row>
+    <row r="66" ht="28.5" customHeight="1">
+      <c r="A66" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="50"/>
+    </row>
+    <row r="67" ht="30.0" customHeight="1">
+      <c r="A67" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="B67" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="126"/>
+      <c r="H67" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" ht="30.0" customHeight="1">
+      <c r="A68" s="77">
+        <v>2.0</v>
+      </c>
+      <c r="B68" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="E68" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="80"/>
+    </row>
+    <row r="69" ht="30.0" customHeight="1">
+      <c r="A69" s="77">
+        <v>3.0</v>
+      </c>
+      <c r="B69" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="E69" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="130" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" ht="30.0" customHeight="1">
+      <c r="A70" s="77">
+        <v>4.0</v>
+      </c>
+      <c r="B70" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="E70" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="F70" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="50"/>
+      <c r="H70" s="130"/>
+    </row>
+    <row r="71" ht="30.0" customHeight="1">
+      <c r="A71" s="77">
+        <v>5.0</v>
+      </c>
+      <c r="B71" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C71" s="131" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="E71" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="F71" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="50"/>
+      <c r="H71" s="80"/>
+    </row>
+    <row r="72" ht="30.0" customHeight="1">
+      <c r="A72" s="77">
+        <v>6.0</v>
+      </c>
+      <c r="B72" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C72" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>438</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="80"/>
+    </row>
+    <row r="73" ht="30.0" customHeight="1">
+      <c r="A73" s="77">
+        <v>7.0</v>
+      </c>
+      <c r="B73" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C73" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" s="80" t="s">
+        <v>441</v>
+      </c>
+      <c r="E73" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="F73" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="132"/>
+    </row>
+    <row r="74" ht="30.0" customHeight="1">
+      <c r="A74" s="77">
+        <v>8.0</v>
+      </c>
+      <c r="B74" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="E74" s="80" t="s">
+        <v>444</v>
+      </c>
+      <c r="F74" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="76"/>
+    </row>
+    <row r="75" ht="30.0" customHeight="1">
+      <c r="A75" s="77">
+        <v>9.0</v>
+      </c>
+      <c r="B75" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>446</v>
+      </c>
+      <c r="E75" s="80" t="s">
+        <v>447</v>
+      </c>
+      <c r="F75" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="76"/>
+    </row>
+    <row r="76" ht="30.0" customHeight="1">
+      <c r="A76" s="77">
+        <v>10.0</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" ht="30.0" customHeight="1">
+      <c r="A77" s="77">
+        <v>11.0</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" ht="30.0" customHeight="1">
+      <c r="A78" s="77">
+        <v>12.0</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" ht="30.0" customHeight="1">
+      <c r="A79" s="77">
+        <v>13.0</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="61">
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -5701,6 +7352,13 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
@@ -5708,14 +7366,6 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5738,49 +7388,51 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.5"/>
-    <col customWidth="1" min="2" max="2" width="11.38"/>
-    <col customWidth="1" min="3" max="3" width="56.25"/>
-    <col customWidth="1" min="4" max="4" width="56.0"/>
-    <col customWidth="1" min="5" max="5" width="47.38"/>
+    <col customWidth="1" min="2" max="2" width="11.88"/>
+    <col customWidth="1" min="3" max="3" width="37.0"/>
+    <col customWidth="1" min="4" max="4" width="50.63"/>
+    <col customWidth="1" min="5" max="5" width="49.5"/>
     <col customWidth="1" min="6" max="6" width="7.75"/>
     <col customWidth="1" min="7" max="7" width="0.38"/>
-    <col customWidth="1" min="8" max="8" width="31.0"/>
+    <col customWidth="1" min="8" max="8" width="35.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="122"/>
-      <c r="C1" s="123" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1" s="124" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" s="125" t="s">
+      <c r="A1" s="133" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="127" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" s="128" t="s">
+      <c r="C2" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="138" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5791,251 +7443,449 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="142" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="141" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="132">
+    <row r="5" ht="33.75" customHeight="1">
+      <c r="A5" s="143">
         <v>1.0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="97" t="s">
+      <c r="B5" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="107" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="96"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="132">
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" ht="33.75" customHeight="1">
+      <c r="A6" s="143">
         <v>2.0</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="50"/>
-      <c r="H6" s="98"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="132">
+      <c r="H6" s="106"/>
+    </row>
+    <row r="7" ht="33.75" customHeight="1">
+      <c r="A7" s="77">
         <v>3.0</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G7" s="50"/>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="132">
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" ht="33.75" customHeight="1">
+      <c r="A8" s="143">
         <v>4.0</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="135"/>
+      <c r="B8" s="22">
+        <v>45242.0</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="50"/>
-      <c r="H8" s="96"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="132">
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" ht="41.25" customHeight="1">
+      <c r="A9" s="143">
         <v>5.0</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="135"/>
+      <c r="B9" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G9" s="50"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="132">
+      <c r="H9" s="104"/>
+    </row>
+    <row r="10" ht="41.25" customHeight="1">
+      <c r="A10" s="77">
         <v>6.0</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="135"/>
+      <c r="B10" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>469</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="96"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="132">
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" ht="33.75" customHeight="1">
+      <c r="A11" s="143">
         <v>7.0</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="135"/>
+      <c r="B11" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>470</v>
+      </c>
+      <c r="D11" s="147" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="50"/>
-      <c r="H11" s="96"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="132">
+      <c r="H11" s="104"/>
+    </row>
+    <row r="12" ht="33.75" customHeight="1">
+      <c r="A12" s="143">
         <v>8.0</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="135"/>
+      <c r="B12" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C12" s="148" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G12" s="50"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="132">
+      <c r="H12" s="82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" ht="33.75" customHeight="1">
+      <c r="A13" s="77">
         <v>9.0</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="96"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="132">
+      <c r="B13" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C13" s="148" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="149"/>
+      <c r="H13" s="82" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" ht="33.75" customHeight="1">
+      <c r="A14" s="77">
         <v>10.0</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="96"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="132">
+      <c r="B14" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="149"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" ht="33.75" customHeight="1">
+      <c r="A15" s="77">
         <v>11.0</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="135"/>
+      <c r="B15" s="146">
+        <v>45242.0</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G15" s="50"/>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="132">
+      <c r="H15" s="82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" ht="33.75" customHeight="1">
+      <c r="A16" s="77">
         <v>12.0</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="135"/>
+      <c r="B16" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="147" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>19</v>
+      </c>
       <c r="G16" s="50"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="132">
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" ht="41.25" customHeight="1">
+      <c r="A17" s="77">
         <v>13.0</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="135"/>
+      <c r="B17" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" s="50"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="132">
+      <c r="H17" s="104"/>
+    </row>
+    <row r="18" ht="41.25" customHeight="1">
+      <c r="A18" s="77">
         <v>14.0</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="135"/>
+      <c r="B18" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="50"/>
-      <c r="H18" s="96"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="132">
+      <c r="H18" s="104"/>
+    </row>
+    <row r="19" ht="41.25" customHeight="1">
+      <c r="A19" s="77">
         <v>15.0</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="135"/>
+      <c r="B19" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>121</v>
+      </c>
       <c r="G19" s="50"/>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="132">
+      <c r="H19" s="104"/>
+    </row>
+    <row r="20" ht="33.75" customHeight="1">
+      <c r="A20" s="77">
         <v>16.0</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="135"/>
+      <c r="B20" s="57">
+        <v>45242.0</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>121</v>
+      </c>
       <c r="G20" s="50"/>
-      <c r="H20" s="96"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="132">
+      <c r="H20" s="104"/>
+    </row>
+    <row r="21" ht="33.75" customHeight="1">
+      <c r="A21" s="77">
         <v>17.0</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="135"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="96"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="132">
+      <c r="H21" s="104"/>
+    </row>
+    <row r="22" ht="33.75" customHeight="1">
+      <c r="A22" s="77">
         <v>18.0</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="135"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="96"/>
+      <c r="H22" s="104"/>
+    </row>
+    <row r="23" ht="33.75" customHeight="1">
+      <c r="A23" s="77">
+        <v>19.0</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="104"/>
+    </row>
+    <row r="24" ht="33.75" customHeight="1">
+      <c r="A24" s="77">
+        <v>20.0</v>
+      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="104"/>
+    </row>
+    <row r="25" ht="33.75" customHeight="1">
+      <c r="A25" s="77">
+        <v>21.0</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="F4:G4"/>
@@ -6043,20 +7893,21 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
